--- a/xlsx/政策_政策_美國_intext.xlsx
+++ b/xlsx/政策_政策_美國_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3068">
   <si>
     <t>美國</t>
   </si>
@@ -9219,1686 +9219,6 @@
   </si>
   <si>
     <t>维基语录</t>
-  </si>
-  <si>
-    <t>https://ab.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B0_%D0%95%D0%B8%D0%B4%D1%83_%D0%90%D1%88%D1%82%D0%B0%D1%82%D2%9B%D3%99%D0%B0</t>
-  </si>
-  <si>
-    <t>Америка Еиду Аштатқәа – 阿布哈西亚语</t>
-  </si>
-  <si>
-    <t>https://ace.wikipedia.org/wiki/Amirika_Syarikat</t>
-  </si>
-  <si>
-    <t>Amirika Syarikat – 亚齐语</t>
-  </si>
-  <si>
-    <t>https://ady.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D1%8D_%D0%A8%D1%82%D0%B0%D1%82_%D0%97%D1%8D%D1%85%D1%8D%D1%82%D1%85%D1%8D%D1%80</t>
-  </si>
-  <si>
-    <t>Америкэ Штат Зэхэтхэр – 阿迪格语</t>
-  </si>
-  <si>
-    <t>https://af.wikipedia.org/wiki/Verenigde_State_van_Amerika</t>
-  </si>
-  <si>
-    <t>Verenigde State van Amerika – 南非荷兰语</t>
-  </si>
-  <si>
-    <t>https://ak.wikipedia.org/wiki/United_States</t>
-  </si>
-  <si>
-    <t>United States – 阿肯语</t>
-  </si>
-  <si>
-    <t>https://als.wikipedia.org/wiki/USA</t>
-  </si>
-  <si>
-    <t>USA – Alemannisch</t>
-  </si>
-  <si>
-    <t>https://am.wikipedia.org/wiki/%E1%8A%A0%E1%88%9C%E1%88%AA%E1%8A%AB</t>
-  </si>
-  <si>
-    <t>አሜሪካ – 阿姆哈拉语</t>
-  </si>
-  <si>
-    <t>https://an.wikipedia.org/wiki/Estatos_Unitos</t>
-  </si>
-  <si>
-    <t>Estatos Unitos – 阿拉贡语</t>
-  </si>
-  <si>
-    <t>https://ang.wikipedia.org/wiki/Ge%C4%81nedu_R%C4%ABcu_American</t>
-  </si>
-  <si>
-    <t>Geānedu Rīcu American – 古英语</t>
-  </si>
-  <si>
-    <t>https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%88%D9%84%D8%A7%D9%8A%D8%A7%D8%AA_%D8%A7%D9%84%D9%85%D8%AA%D8%AD%D8%AF%D8%A9</t>
-  </si>
-  <si>
-    <t>الولايات المتحدة – 阿拉伯语</t>
-  </si>
-  <si>
-    <t>https://arc.wikipedia.org/wiki/%DC%90%DC%98%DC%9A%DC%95%DC%A2%DC%90_%DC%A1%DC%9A%DC%9D%DC%95%DC%90</t>
-  </si>
-  <si>
-    <t>ܐܘܚܕܢܐ ܡܚܝܕܐ – 阿拉米语</t>
-  </si>
-  <si>
-    <t>https://arz.wikipedia.org/wiki/%D8%A7%D9%85%D8%B1%D9%8A%D9%83%D8%A7</t>
-  </si>
-  <si>
-    <t>امريكا – Egyptian Arabic</t>
-  </si>
-  <si>
-    <t>https://as.wikipedia.org/wiki/%E0%A6%85%E0%A6%BE%E0%A6%AE%E0%A7%87%E0%A7%B0%E0%A6%BF%E0%A6%95%E0%A6%BE_%E0%A6%AF%E0%A7%81%E0%A6%95%E0%A7%8D%E0%A6%A4%E0%A7%B0%E0%A6%BE%E0%A6%B7%E0%A7%8D%E0%A6%9F%E0%A7%8D%E0%A7%B0</t>
-  </si>
-  <si>
-    <t>অামেৰিকা যুক্তৰাষ্ট্ৰ – 阿萨姆语</t>
-  </si>
-  <si>
-    <t>https://ast.wikipedia.org/wiki/Estaos_Xun%C3%ADos_d%27Am%C3%A9rica</t>
-  </si>
-  <si>
-    <t>Estaos Xuníos d'América – 阿斯图里亚斯语</t>
-  </si>
-  <si>
-    <t>https://av.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B0%D0%BB%D1%8A%D1%83%D0%BB_%D0%A6%D0%BE%D0%BB%D1%8A%D0%B0%D1%80%D0%B0%D0%BB_%D0%A8%D1%82%D0%B0%D1%82%D0%B0%D0%BB</t>
-  </si>
-  <si>
-    <t>Америкалъул Цолъарал Штатал – 阿瓦尔语</t>
-  </si>
-  <si>
-    <t>https://ay.wikipedia.org/wiki/Istadus_Unidus</t>
-  </si>
-  <si>
-    <t>Istadus Unidus – 艾马拉语</t>
-  </si>
-  <si>
-    <t>https://az.wikipedia.org/wiki/Amerika_Birl%C9%99%C5%9Fmi%C5%9F_%C5%9Etatlar%C4%B1</t>
-  </si>
-  <si>
-    <t>Amerika Birləşmiş Ştatları – 阿塞拜疆语</t>
-  </si>
-  <si>
-    <t>https://azb.wikipedia.org/wiki/%D8%A2%D9%85%D8%B1%DB%8C%DA%A9%D8%A7_%D8%A8%DB%8C%D8%B1%D9%84%D8%B4%D9%85%DB%8C%D8%B4_%D8%A7%DB%8C%D8%A7%D9%84%D8%AA%D9%84%D8%B1%DB%8C</t>
-  </si>
-  <si>
-    <t>آمریکا بیرلشمیش ایالتلری – South Azerbaijani</t>
-  </si>
-  <si>
-    <t>https://ba.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B0_%D2%A0%D1%83%D1%88%D0%BC%D0%B0_%D0%A8%D1%82%D0%B0%D1%82%D1%82%D0%B0%D1%80%D1%8B</t>
-  </si>
-  <si>
-    <t>Америка Ҡушма Штаттары – 巴什基尔语</t>
-  </si>
-  <si>
-    <t>https://bar.wikipedia.org/wiki/Vaoanigte_Stootn</t>
-  </si>
-  <si>
-    <t>Vaoanigte Stootn – Bavarian</t>
-  </si>
-  <si>
-    <t>https://bat-smg.wikipedia.org/wiki/JAV</t>
-  </si>
-  <si>
-    <t>JAV – Samogitian</t>
-  </si>
-  <si>
-    <t>https://bcl.wikipedia.org/wiki/Estados_Unidos</t>
-  </si>
-  <si>
-    <t>Estados Unidos – Central Bikol</t>
-  </si>
-  <si>
-    <t>https://be.wikipedia.org/wiki/%D0%97%D0%BB%D1%83%D1%87%D0%B0%D0%BD%D1%8B%D1%8F_%D0%A8%D1%82%D0%B0%D1%82%D1%8B_%D0%90%D0%BC%D0%B5%D1%80%D1%8B%D0%BA%D1%96</t>
-  </si>
-  <si>
-    <t>Злучаныя Штаты Амерыкі – 白俄罗斯语</t>
-  </si>
-  <si>
-    <t>https://be-x-old.wikipedia.org/wiki/%D0%97%D0%BB%D1%83%D1%87%D0%B0%D0%BD%D1%8B%D1%8F_%D0%A8%D1%82%D0%B0%D1%82%D1%8B_%D0%90%D0%BC%D1%8D%D1%80%D1%8B%D0%BA%D1%96</t>
-  </si>
-  <si>
-    <t>Злучаныя Штаты Амэрыкі – Belarusian (Taraškievica orthography)</t>
-  </si>
-  <si>
-    <t>https://bg.wikipedia.org/wiki/%D0%A1%D1%8A%D0%B5%D0%B4%D0%B8%D0%BD%D0%B5%D0%BD%D0%B8_%D0%B0%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B0%D0%BD%D1%81%D0%BA%D0%B8_%D1%89%D0%B0%D1%82%D0%B8</t>
-  </si>
-  <si>
-    <t>Съединени американски щати – 保加利亚语</t>
-  </si>
-  <si>
-    <t>https://bh.wikipedia.org/wiki/%E0%A4%85%E0%A4%AE%E0%A5%87%E0%A4%B0%E0%A4%BF%E0%A4%95%E0%A4%BE</t>
-  </si>
-  <si>
-    <t>अमेरिका – Bhojpuri</t>
-  </si>
-  <si>
-    <t>https://bi.wikipedia.org/wiki/Yunaeted_Stet_blong_Amerika</t>
-  </si>
-  <si>
-    <t>Yunaeted Stet blong Amerika – 比斯拉马语</t>
-  </si>
-  <si>
-    <t>https://bjn.wikipedia.org/wiki/Amirika_Serikat</t>
-  </si>
-  <si>
-    <t>Amirika Serikat – Banjar</t>
-  </si>
-  <si>
-    <t>https://bm.wikipedia.org/wiki/Amerika_ka_Kelenyalen_Jamanaw</t>
-  </si>
-  <si>
-    <t>Amerika ka Kelenyalen Jamanaw – 班巴拉语</t>
-  </si>
-  <si>
-    <t>https://bn.wikipedia.org/wiki/%E0%A6%AE%E0%A6%BE%E0%A6%B0%E0%A7%8D%E0%A6%95%E0%A6%BF%E0%A6%A8_%E0%A6%AF%E0%A7%81%E0%A6%95%E0%A7%8D%E0%A6%A4%E0%A6%B0%E0%A6%BE%E0%A6%B7%E0%A7%8D%E0%A6%9F%E0%A7%8D%E0%A6%B0</t>
-  </si>
-  <si>
-    <t>মার্কিন যুক্তরাষ্ট্র – 孟加拉语</t>
-  </si>
-  <si>
-    <t>https://bo.wikipedia.org/wiki/%E0%BD%A8%E0%BC%8B%E0%BD%98%E0%BD%BA%E0%BC%8B%E0%BD%A2%E0%BD%B2%E0%BC%8B%E0%BD%81%E0%BC%8B%E0%BD%A2%E0%BE%92%E0%BE%B1%E0%BD%A3%E0%BC%8B%E0%BD%95%E0%BE%B2%E0%BD%93%E0%BC%8B%E0%BD%98%E0%BD%89%E0%BD%98%E0%BC%8B%E0%BD%A0%E0%BD%96%E0%BE%B2%E0%BD%BA%E0%BD%A3%E0%BC%8B%E0%BD%A2%E0%BE%92%E0%BE%B1%E0%BD%A3%E0%BC%8B%E0%BD%81%E0%BD%96%E0%BC%8D</t>
-  </si>
-  <si>
-    <t>ཨ་མེ་རི་ཁ་རྒྱལ་ཕྲན་མཉམ་འབྲེལ་རྒྱལ་ཁབ། – 藏语</t>
-  </si>
-  <si>
-    <t>https://bpy.wikipedia.org/wiki/%E0%A6%A4%E0%A6%BF%E0%A6%B2%E0%A6%AA%E0%A6%BE%E0%A6%B0%E0%A6%BE%E0%A6%B7%E0%A7%8D%E0%A6%9F%E0%A7%8D%E0%A6%B0</t>
-  </si>
-  <si>
-    <t>তিলপারাষ্ট্র – Bishnupriya</t>
-  </si>
-  <si>
-    <t>https://br.wikipedia.org/wiki/Stado%C3%B9-Unanet_Amerika</t>
-  </si>
-  <si>
-    <t>Stadoù-Unanet Amerika – 布列塔尼语</t>
-  </si>
-  <si>
-    <t>https://bs.wikipedia.org/wiki/Sjedinjene_Ameri%C4%8Dke_Dr%C5%BEave</t>
-  </si>
-  <si>
-    <t>Sjedinjene Američke Države – 波斯尼亚语</t>
-  </si>
-  <si>
-    <t>https://bxr.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D1%8B%D0%BD_%D0%9D%D1%8D%D0%B3%D1%8D%D0%B4%D1%8D%D2%BB%D1%8D%D0%BD_%D0%A3%D0%BB%D0%B0%D1%81</t>
-  </si>
-  <si>
-    <t>Америкын Нэгэдэһэн Улас – Russia Buriat</t>
-  </si>
-  <si>
-    <t>https://ca.wikipedia.org/wiki/Estats_Units_d%27Am%C3%A8rica</t>
-  </si>
-  <si>
-    <t>Estats Units d'Amèrica – 加泰罗尼亚语</t>
-  </si>
-  <si>
-    <t>https://cbk-zam.wikipedia.org/wiki/Estados_Unidos_de_America</t>
-  </si>
-  <si>
-    <t>Estados Unidos de America – Chavacano</t>
-  </si>
-  <si>
-    <t>https://cdo.wikipedia.org/wiki/M%C4%AB-gu%C3%B3k</t>
-  </si>
-  <si>
-    <t>Mī-guók – Min Dong Chinese</t>
-  </si>
-  <si>
-    <t>https://ce.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B8%D0%BD_%D0%A6%D1%85%D1%8C%D0%B0%D1%8C%D0%BD%D0%B0%D1%82%D0%BE%D1%8C%D1%85%D0%BD%D0%B0_%D0%A8%D1%82%D0%B0%D1%82%D0%B0%D1%88</t>
-  </si>
-  <si>
-    <t>Америкин Цхьаьнатоьхна Штаташ – 车臣语</t>
-  </si>
-  <si>
-    <t>https://ceb.wikipedia.org/wiki/Estados_Unidos</t>
-  </si>
-  <si>
-    <t>Estados Unidos – 宿务语</t>
-  </si>
-  <si>
-    <t>https://ch.wikipedia.org/wiki/Estados_Unidus</t>
-  </si>
-  <si>
-    <t>Estados Unidus – 查莫罗语</t>
-  </si>
-  <si>
-    <t>https://chr.wikipedia.org/wiki/%E1%8F%8C%E1%8F%8A%E1%8E%A2%E1%8F%B3%E1%8E%BE%E1%8E%B5%E1%8F%8D%E1%8F%94%E1%8F%85%E1%8F%8D%E1%8E%A6%E1%8F%9A%E1%8E%A9_%E1%8E%BE%E1%8E%BF_%E1%8E%A0%E1%8E%BA%E1%8F%B0%E1%8F%9F</t>
-  </si>
-  <si>
-    <t>ᏌᏊᎢᏳᎾᎵᏍᏔᏅᏍᎦᏚᎩ ᎾᎿ ᎠᎺᏰᏟ – 切罗基语</t>
-  </si>
-  <si>
-    <t>https://chy.wikipedia.org/wiki/United_States</t>
-  </si>
-  <si>
-    <t>United States – 夏延语</t>
-  </si>
-  <si>
-    <t>https://ckb.wikipedia.org/wiki/%D9%88%DB%8C%D9%84%D8%A7%DB%8C%DB%95%D8%AA%DB%95_%DB%8C%DB%95%DA%A9%DA%AF%D8%B1%D8%AA%D9%88%D9%88%DB%95%DA%A9%D8%A7%D9%86%DB%8C_%D8%A6%DB%95%D9%85%D8%B1%DB%8C%DA%A9%D8%A7</t>
-  </si>
-  <si>
-    <t>ویلایەتە یەکگرتووەکانی ئەمریکا – 中库尔德语</t>
-  </si>
-  <si>
-    <t>https://co.wikipedia.org/wiki/Stati_Uniti_d%27America</t>
-  </si>
-  <si>
-    <t>Stati Uniti d'America – 科西嘉语</t>
-  </si>
-  <si>
-    <t>https://cr.wikipedia.org/wiki/%E1%91%AD%E1%90%A6%E1%92%8B_%E1%92%A8%E1%90%A6%E1%91%AF%E1%92%AB%E1%93%87%E1%90%A2%E1%91%AD%E1%95%80</t>
-  </si>
-  <si>
-    <t>ᑭᐦᒋ ᒨᐦᑯᒫᓇᐢᑭᕀ – 克里族语</t>
-  </si>
-  <si>
-    <t>https://crh.wikipedia.org/wiki/Amerika_Qo%C5%9Fma_%C5%9Etatlar%C4%B1</t>
-  </si>
-  <si>
-    <t>Amerika Qoşma Ştatları – 克里米亚土耳其语</t>
-  </si>
-  <si>
-    <t>https://cs.wikipedia.org/wiki/Spojen%C3%A9_st%C3%A1ty_americk%C3%A9</t>
-  </si>
-  <si>
-    <t>Spojené státy americké – 捷克语</t>
-  </si>
-  <si>
-    <t>https://csb.wikipedia.org/wiki/Zjedn%C3%B3n%C3%A9_Kraje_Americzi</t>
-  </si>
-  <si>
-    <t>Zjednóné Kraje Americzi – 卡舒比语</t>
-  </si>
-  <si>
-    <t>https://cu.wikipedia.org/wiki/%D0%90%D0%BC%D1%94%D1%80%D1%97%D0%BA%D0%B0%D0%BD%D1%8C%D1%81%D0%BA%EA%99%91_%D1%A4%D0%B4%D1%8C%D0%BD%D1%A5%D0%BD%EA%99%91_%D0%94%D1%80%D1%8C%D0%B6%D0%B0%D0%B2%EA%99%91</t>
-  </si>
-  <si>
-    <t>Амєрїканьскꙑ Ѥдьнѥнꙑ Дрьжавꙑ – 教会斯拉夫语</t>
-  </si>
-  <si>
-    <t>https://cv.wikipedia.org/wiki/%D0%9F%C4%95%D1%80%D0%BB%D0%B5%D1%88%D0%BD%C4%95_%D0%A8%D1%82%D0%B0%D1%82%D1%81%D0%B5%D0%BC</t>
-  </si>
-  <si>
-    <t>Пĕрлешнĕ Штатсем – 楚瓦什语</t>
-  </si>
-  <si>
-    <t>https://cy.wikipedia.org/wiki/Unol_Daleithiau_America</t>
-  </si>
-  <si>
-    <t>Unol Daleithiau America – 威尔士语</t>
-  </si>
-  <si>
-    <t>https://da.wikipedia.org/wiki/USA</t>
-  </si>
-  <si>
-    <t>USA – 丹麦语</t>
-  </si>
-  <si>
-    <t>https://de.wikipedia.org/wiki/Vereinigte_Staaten</t>
-  </si>
-  <si>
-    <t>Vereinigte Staaten – 德语</t>
-  </si>
-  <si>
-    <t>https://din.wikipedia.org/wiki/Pawuut_Matiic</t>
-  </si>
-  <si>
-    <t>Pawuut Matiic – 丁卡语</t>
-  </si>
-  <si>
-    <t>https://diq.wikipedia.org/wiki/Dewlet%C3%AA_Amerikay%C3%AA_Yewbiyayey</t>
-  </si>
-  <si>
-    <t>Dewletê Amerikayê Yewbiyayey – Zazaki</t>
-  </si>
-  <si>
-    <t>https://dsb.wikipedia.org/wiki/Zjadno%C5%9Bone_staty_Ameriki</t>
-  </si>
-  <si>
-    <t>Zjadnośone staty Ameriki – 下索布语</t>
-  </si>
-  <si>
-    <t>https://dty.wikipedia.org/wiki/%E0%A4%B8%E0%A4%82%E0%A4%AF%E0%A5%81%E0%A4%95%E0%A5%8D%E0%A4%A4_%E0%A4%B0%E0%A4%BE%E0%A4%9C%E0%A5%8D%E0%A4%AF_%E0%A4%85%E0%A4%AE%E0%A5%87%E0%A4%B0%E0%A4%BF%E0%A4%95%E0%A4%BE</t>
-  </si>
-  <si>
-    <t>संयुक्त राज्य अमेरिका – Doteli</t>
-  </si>
-  <si>
-    <t>https://dv.wikipedia.org/wiki/%DE%87%DE%AC%DE%89%DE%AC%DE%83%DE%A8%DE%86%DE%A7</t>
-  </si>
-  <si>
-    <t>އެމެރިކާ – 迪维西语</t>
-  </si>
-  <si>
-    <t>https://dz.wikipedia.org/wiki/%E0%BD%A1%E0%BD%B4%E0%BC%8B%E0%BD%93%E0%BD%A0%E0%BD%B2%E0%BD%8A%E0%BD%BA%E0%BD%8A%E0%BC%8B%E0%BD%A6%E0%BD%B2%E0%BC%8B%E0%BD%8A%E0%BD%BA%E0%BD%A6</t>
-  </si>
-  <si>
-    <t>ཡུ་ནའིཊེཊ་སི་ཊེས – 宗卡语</t>
-  </si>
-  <si>
-    <t>https://ee.wikipedia.org/wiki/United_States</t>
-  </si>
-  <si>
-    <t>United States – 埃维语</t>
-  </si>
-  <si>
-    <t>https://el.wikipedia.org/wiki/%CE%97%CE%BD%CF%89%CE%BC%CE%AD%CE%BD%CE%B5%CF%82_%CE%A0%CE%BF%CE%BB%CE%B9%CF%84%CE%B5%CE%AF%CE%B5%CF%82_%CE%91%CE%BC%CE%B5%CF%81%CE%B9%CE%BA%CE%AE%CF%82</t>
-  </si>
-  <si>
-    <t>Ηνωμένες Πολιτείες Αμερικής – 希腊语</t>
-  </si>
-  <si>
-    <t>https://eml.wikipedia.org/wiki/Stat_Un%C3%AE</t>
-  </si>
-  <si>
-    <t>Stat Unî – Emiliano-Romagnolo</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States</t>
-  </si>
-  <si>
-    <t>United States – 英语</t>
-  </si>
-  <si>
-    <t>https://eo.wikipedia.org/wiki/Usono</t>
-  </si>
-  <si>
-    <t>Usono – 世界语</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Estados_Unidos</t>
-  </si>
-  <si>
-    <t>Estados Unidos – 西班牙语</t>
-  </si>
-  <si>
-    <t>https://et.wikipedia.org/wiki/Ameerika_%C3%9Chendriigid</t>
-  </si>
-  <si>
-    <t>Ameerika Ühendriigid – 爱沙尼亚语</t>
-  </si>
-  <si>
-    <t>https://eu.wikipedia.org/wiki/Ameriketako_Estatu_Batuak</t>
-  </si>
-  <si>
-    <t>Ameriketako Estatu Batuak – 巴斯克语</t>
-  </si>
-  <si>
-    <t>https://ext.wikipedia.org/wiki/Estaus_Un%C3%ADus</t>
-  </si>
-  <si>
-    <t>Estaus Uníus – Extremaduran</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%DB%8C%D8%A7%D9%84%D8%A7%D8%AA_%D9%85%D8%AA%D8%AD%D8%AF%D9%87_%D8%A2%D9%85%D8%B1%DB%8C%DA%A9%D8%A7</t>
-  </si>
-  <si>
-    <t>ایالات متحده آمریکا – 波斯语</t>
-  </si>
-  <si>
-    <t>https://ff.wikipedia.org/wiki/Dowlaaji_Dentu%C9%97i</t>
-  </si>
-  <si>
-    <t>Dowlaaji Dentuɗi – 富拉语</t>
-  </si>
-  <si>
-    <t>https://fi.wikipedia.org/wiki/Yhdysvallat</t>
-  </si>
-  <si>
-    <t>Yhdysvallat – 芬兰语</t>
-  </si>
-  <si>
-    <t>https://fiu-vro.wikipedia.org/wiki/Ameeriga_%C3%9Ctisriigiq</t>
-  </si>
-  <si>
-    <t>Ameeriga Ütisriigiq – Võro</t>
-  </si>
-  <si>
-    <t>https://fj.wikipedia.org/wiki/United_States</t>
-  </si>
-  <si>
-    <t>United States – 斐济语</t>
-  </si>
-  <si>
-    <t>https://fo.wikipedia.org/wiki/USA</t>
-  </si>
-  <si>
-    <t>USA – 法罗语</t>
-  </si>
-  <si>
-    <t>https://fr.wikipedia.org/wiki/%C3%89tats-Unis</t>
-  </si>
-  <si>
-    <t>États-Unis – 法语</t>
-  </si>
-  <si>
-    <t>https://frp.wikipedia.org/wiki/%C3%88tats-Unis_d%E2%80%99Am%C3%A8rica</t>
-  </si>
-  <si>
-    <t>Ètats-Unis d’Amèrica – Arpitan</t>
-  </si>
-  <si>
-    <t>https://frr.wikipedia.org/wiki/Feriind_Stoote_foon_Ameerika</t>
-  </si>
-  <si>
-    <t>Feriind Stoote foon Ameerika – 北弗里西亚语</t>
-  </si>
-  <si>
-    <t>https://fur.wikipedia.org/wiki/St%C3%A2ts_Un%C3%AEts_di_Americhe</t>
-  </si>
-  <si>
-    <t>Stâts Unîts di Americhe – 弗留利语</t>
-  </si>
-  <si>
-    <t>https://fy.wikipedia.org/wiki/Feriene_Steaten</t>
-  </si>
-  <si>
-    <t>Feriene Steaten – 西弗里西亚语</t>
-  </si>
-  <si>
-    <t>https://ga.wikipedia.org/wiki/St%C3%A1it_Aontaithe_Mheirice%C3%A1</t>
-  </si>
-  <si>
-    <t>Stáit Aontaithe Mheiriceá – 爱尔兰语</t>
-  </si>
-  <si>
-    <t>https://gag.wikipedia.org/wiki/Amerika_Birle%C5%9Fik_Devletl%C3%A4ri</t>
-  </si>
-  <si>
-    <t>Amerika Birleşik Devletläri – 加告兹语</t>
-  </si>
-  <si>
-    <t>https://gan.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國 – 赣语</t>
-  </si>
-  <si>
-    <t>https://gd.wikipedia.org/wiki/Na_St%C3%A0itean_Aonaichte</t>
-  </si>
-  <si>
-    <t>Na Stàitean Aonaichte – 苏格兰盖尔语</t>
-  </si>
-  <si>
-    <t>https://gl.wikipedia.org/wiki/Estados_Unidos_de_Am%C3%A9rica</t>
-  </si>
-  <si>
-    <t>Estados Unidos de América – 加利西亚语</t>
-  </si>
-  <si>
-    <t>https://glk.wikipedia.org/wiki/%D8%A2%D9%85%D8%B1%D9%8A%DA%A9%D8%A7_%D8%A7%D9%8A%D8%AC%D8%A4%D9%86%D8%A3%D8%A8%D8%A4_%D8%A7%D9%8A%D8%A7%D9%84%D8%AA%D8%A4%D9%86</t>
-  </si>
-  <si>
-    <t>آمريکا ايجؤنأبؤ ايالتؤن – Gilaki</t>
-  </si>
-  <si>
-    <t>https://gn.wikipedia.org/wiki/Tet%C3%A3vore_Joapyku%C3%A9ra</t>
-  </si>
-  <si>
-    <t>Tetãvore Joapykuéra – 瓜拉尼语</t>
-  </si>
-  <si>
-    <t>https://gom.wikipedia.org/wiki/%E0%A4%85%E0%A4%AE%E0%A5%87%E0%A4%B0%E0%A4%BF%E0%A4%95%E0%A5%87%E0%A4%9A%E0%A5%80%E0%A4%82_%E0%A4%B8%E0%A4%82%E0%A4%AF%E0%A5%81%E0%A4%95%E0%A5%8D%E0%A4%A4_%E0%A4%B0%E0%A4%BE%E0%A4%9C%E0%A5%8D%E0%A4%AF%E0%A4%BE%E0%A4%82</t>
-  </si>
-  <si>
-    <t>अमेरिकेचीं संयुक्त राज्यां – Goan Konkani</t>
-  </si>
-  <si>
-    <t>https://got.wikipedia.org/wiki/%F0%90%8C%B0%F0%90%8C%BC%F0%90%8C%B0%F0%90%8C%B9%F0%90%8D%82%F0%90%8C%B9%F0%90%8C%BA%F0%90%8C%B0</t>
-  </si>
-  <si>
-    <t>𐌰𐌼𐌰𐌹𐍂𐌹𐌺𐌰 – 哥特语</t>
-  </si>
-  <si>
-    <t>https://gu.wikipedia.org/wiki/%E0%AA%AF%E0%AB%81%E0%AA%A8%E0%AA%BE%E0%AA%87%E0%AA%9F%E0%AB%87%E0%AA%A1_%E0%AA%B8%E0%AB%8D%E0%AA%9F%E0%AB%87%E0%AA%9F%E0%AB%8D%E0%AA%B8_%E0%AA%93%E0%AA%AB_%E0%AA%85%E0%AA%AE%E0%AB%87%E0%AA%B0%E0%AA%BF%E0%AA%95%E0%AA%BE</t>
-  </si>
-  <si>
-    <t>યુનાઇટેડ સ્ટેટ્સ ઓફ અમેરિકા – 古吉拉特语</t>
-  </si>
-  <si>
-    <t>https://gv.wikipedia.org/wiki/Steatyn_Unnaneysit_America</t>
-  </si>
-  <si>
-    <t>Steatyn Unnaneysit America – 马恩语</t>
-  </si>
-  <si>
-    <t>https://ha.wikipedia.org/wiki/Tarayyar_Amurka</t>
-  </si>
-  <si>
-    <t>Tarayyar Amurka – 豪萨语</t>
-  </si>
-  <si>
-    <t>https://hak.wikipedia.org/wiki/M%C3%AE-koet</t>
-  </si>
-  <si>
-    <t>Mî-koet – 客家语</t>
-  </si>
-  <si>
-    <t>https://haw.wikipedia.org/wiki/%E2%80%98Amelika_Hui_P%C5%AB_%E2%80%98ia</t>
-  </si>
-  <si>
-    <t>‘Amelika Hui Pū ‘ia – 夏威夷语</t>
-  </si>
-  <si>
-    <t>https://he.wikipedia.org/wiki/%D7%90%D7%A8%D7%A6%D7%95%D7%AA_%D7%94%D7%91%D7%A8%D7%99%D7%AA</t>
-  </si>
-  <si>
-    <t>ארצות הברית – 希伯来语</t>
-  </si>
-  <si>
-    <t>https://hi.wikipedia.org/wiki/%E0%A4%B8%E0%A4%82%E0%A4%AF%E0%A5%81%E0%A4%95%E0%A5%8D%E0%A4%A4_%E0%A4%B0%E0%A4%BE%E0%A4%9C%E0%A5%8D%E0%A4%AF</t>
-  </si>
-  <si>
-    <t>संयुक्त राज्य – 印地语</t>
-  </si>
-  <si>
-    <t>https://hif.wikipedia.org/wiki/United_States</t>
-  </si>
-  <si>
-    <t>United States – Fiji Hindi</t>
-  </si>
-  <si>
-    <t>https://hr.wikipedia.org/wiki/Sjedinjene_Ameri%C4%8Dke_Dr%C5%BEave</t>
-  </si>
-  <si>
-    <t>Sjedinjene Američke Države – 克罗地亚语</t>
-  </si>
-  <si>
-    <t>https://hsb.wikipedia.org/wiki/Zjedno%C4%87ene_staty_Ameriki</t>
-  </si>
-  <si>
-    <t>Zjednoćene staty Ameriki – 上索布语</t>
-  </si>
-  <si>
-    <t>https://ht.wikipedia.org/wiki/Etazini</t>
-  </si>
-  <si>
-    <t>Etazini – 海地克里奥尔语</t>
-  </si>
-  <si>
-    <t>https://hu.wikipedia.org/wiki/Amerikai_Egyes%C3%BClt_%C3%81llamok</t>
-  </si>
-  <si>
-    <t>Amerikai Egyesült Államok – 匈牙利语</t>
-  </si>
-  <si>
-    <t>https://hy.wikipedia.org/wiki/%D4%B1%D5%B4%D5%A5%D6%80%D5%AB%D5%AF%D5%A1%D5%B5%D5%AB_%D5%84%D5%AB%D5%A1%D6%81%D5%B5%D5%A1%D5%AC_%D5%86%D5%A1%D5%B0%D5%A1%D5%B6%D5%A3%D5%B6%D5%A5%D6%80</t>
-  </si>
-  <si>
-    <t>Ամերիկայի Միացյալ Նահանգներ – 亚美尼亚语</t>
-  </si>
-  <si>
-    <t>https://ia.wikipedia.org/wiki/Statos_Unite_de_America</t>
-  </si>
-  <si>
-    <t>Statos Unite de America – 国际语</t>
-  </si>
-  <si>
-    <t>https://id.wikipedia.org/wiki/Amerika_Serikat</t>
-  </si>
-  <si>
-    <t>Amerika Serikat – 印度尼西亚语</t>
-  </si>
-  <si>
-    <t>https://ie.wikipedia.org/wiki/Federativ_States_de_USA</t>
-  </si>
-  <si>
-    <t>Federativ States de USA – 国际文字（E）</t>
-  </si>
-  <si>
-    <t>https://ig.wikipedia.org/wiki/Njikota_Obodo_Amerika</t>
-  </si>
-  <si>
-    <t>Njikota Obodo Amerika – 伊博语</t>
-  </si>
-  <si>
-    <t>https://ik.wikipedia.org/wiki/Tannapta_nuna%C5%8Bat</t>
-  </si>
-  <si>
-    <t>Tannapta nunaŋat – 伊努皮克语</t>
-  </si>
-  <si>
-    <t>https://ilo.wikipedia.org/wiki/Estados_Unidos_iti_Amerika</t>
-  </si>
-  <si>
-    <t>Estados Unidos iti Amerika – 伊洛卡诺语</t>
-  </si>
-  <si>
-    <t>https://io.wikipedia.org/wiki/Usa</t>
-  </si>
-  <si>
-    <t>Usa – 伊多语</t>
-  </si>
-  <si>
-    <t>https://is.wikipedia.org/wiki/Bandar%C3%ADkin</t>
-  </si>
-  <si>
-    <t>Bandaríkin – 冰岛语</t>
-  </si>
-  <si>
-    <t>https://it.wikipedia.org/wiki/Stati_Uniti_d%27America</t>
-  </si>
-  <si>
-    <t>Stati Uniti d'America – 意大利语</t>
-  </si>
-  <si>
-    <t>https://iu.wikipedia.org/wiki/%E1%90%8A%E1%92%A5%E1%90%8A%E1%93%95%E1%91%B2</t>
-  </si>
-  <si>
-    <t>ᐊᒥᐊᓕᑲ – 因纽特语</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E3%82%A2%E3%83%A1%E3%83%AA%E3%82%AB%E5%90%88%E8%A1%86%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>アメリカ合衆国 – 日语</t>
-  </si>
-  <si>
-    <t>https://jam.wikipedia.org/wiki/Yunaitid_Stiet</t>
-  </si>
-  <si>
-    <t>Yunaitid Stiet – Jamaican Creole English</t>
-  </si>
-  <si>
-    <t>https://jbo.wikipedia.org/wiki/mergu%27e</t>
-  </si>
-  <si>
-    <t>mergu'e – 逻辑语</t>
-  </si>
-  <si>
-    <t>https://jv.wikipedia.org/wiki/Am%C3%A9rika_Sar%C3%A9kat</t>
-  </si>
-  <si>
-    <t>Amérika Sarékat – 爪哇语</t>
-  </si>
-  <si>
-    <t>https://ka.wikipedia.org/wiki/%E1%83%90%E1%83%9B%E1%83%94%E1%83%A0%E1%83%98%E1%83%99%E1%83%98%E1%83%A1_%E1%83%A8%E1%83%94%E1%83%94%E1%83%A0%E1%83%97%E1%83%94%E1%83%91%E1%83%A3%E1%83%9A%E1%83%98_%E1%83%A8%E1%83%A2%E1%83%90%E1%83%A2%E1%83%94%E1%83%91%E1%83%98</t>
-  </si>
-  <si>
-    <t>ამერიკის შეერთებული შტატები – 格鲁吉亚语</t>
-  </si>
-  <si>
-    <t>https://kaa.wikipedia.org/wiki/Amerika_Qurama_Shtatlar%C4%B1</t>
-  </si>
-  <si>
-    <t>Amerika Qurama Shtatları – 卡拉卡尔帕克语</t>
-  </si>
-  <si>
-    <t>https://kab.wikipedia.org/wiki/Iwunak_Yeddukklen_n_Temrikt</t>
-  </si>
-  <si>
-    <t>Iwunak Yeddukklen n Temrikt – 卡拜尔语</t>
-  </si>
-  <si>
-    <t>https://kbd.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D1%8D_%D0%A8%D1%82%D0%B0%D1%82_%D0%97%D1%8D%D0%B3%D1%83%D1%8D%D1%82%D1%85%D1%8D%D1%80</t>
-  </si>
-  <si>
-    <t>Америкэ Штат Зэгуэтхэр – 卡巴尔德语</t>
-  </si>
-  <si>
-    <t>https://kbp.wikipedia.org/wiki/Etaazuunii</t>
-  </si>
-  <si>
-    <t>Etaazuunii – Kabiye</t>
-  </si>
-  <si>
-    <t>https://ki.wikipedia.org/wiki/United_States</t>
-  </si>
-  <si>
-    <t>United States – 吉库尤语</t>
-  </si>
-  <si>
-    <t>https://kk.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B0_%D2%9A%D2%B1%D1%80%D0%B0%D0%BC%D0%B0_%D0%A8%D1%82%D0%B0%D1%82%D1%82%D0%B0%D1%80%D1%8B</t>
-  </si>
-  <si>
-    <t>Америка Құрама Штаттары – 哈萨克语</t>
-  </si>
-  <si>
-    <t>https://kl.wikipedia.org/wiki/Naalagaaffeqatigiit</t>
-  </si>
-  <si>
-    <t>Naalagaaffeqatigiit – 格陵兰语</t>
-  </si>
-  <si>
-    <t>https://km.wikipedia.org/wiki/%E1%9E%9F%E1%9E%A0%E1%9E%9A%E1%9E%8A%E1%9F%92%E1%9E%8B%E1%9E%A2%E1%9E%B6%E1%9E%98%E1%9F%81%E1%9E%9A%E1%9E%B7%E1%9E%80</t>
-  </si>
-  <si>
-    <t>សហរដ្ឋអាមេរិក – 高棉语</t>
-  </si>
-  <si>
-    <t>https://kn.wikipedia.org/wiki/%E0%B2%85%E0%B2%AE%E0%B3%87%E0%B2%B0%E0%B2%BF%E0%B2%95_%E0%B2%B8%E0%B2%82%E0%B2%AF%E0%B3%81%E0%B2%95%E0%B3%8D%E0%B2%A4_%E0%B2%B8%E0%B2%82%E0%B2%B8%E0%B3%8D%E0%B2%A5%E0%B2%BE%E0%B2%A8</t>
-  </si>
-  <si>
-    <t>ಅಮೇರಿಕ ಸಂಯುಕ್ತ ಸಂಸ್ಥಾನ – 卡纳达语</t>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EB%AF%B8%EA%B5%AD</t>
-  </si>
-  <si>
-    <t>미국 – 韩语</t>
-  </si>
-  <si>
-    <t>https://koi.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B0%D0%B8%D1%81%D1%8C_%D3%A6%D1%82%D0%BB%D0%B0%D0%B0%D1%81%D1%8C%D3%A7%D0%BC_%D0%A8%D1%82%D0%B0%D1%82%D1%82%D1%8D%D0%B7</t>
-  </si>
-  <si>
-    <t>Америкаись Ӧтлаасьӧм Штаттэз – 科米-彼尔米亚克语</t>
-  </si>
-  <si>
-    <t>https://krc.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B0%D0%BD%D1%8B_%D0%91%D0%B8%D1%80%D0%BB%D0%B5%D1%88%D0%B3%D0%B5%D0%BD_%D0%A8%D1%82%D0%B0%D1%82%D0%BB%D0%B0%D1%80%D1%8B</t>
-  </si>
-  <si>
-    <t>Американы Бирлешген Штатлары – 卡拉恰伊巴尔卡尔语</t>
-  </si>
-  <si>
-    <t>https://ksh.wikipedia.org/wiki/Vereenichde_Staate_van_Amerika</t>
-  </si>
-  <si>
-    <t>Vereenichde Staate van Amerika – 科隆语</t>
-  </si>
-  <si>
-    <t>https://ku.wikipedia.org/wiki/Dewlet%C3%AAn_Yekb%C3%BBy%C3%AE_y%C3%AAn_Amer%C3%AEkay%C3%AA</t>
-  </si>
-  <si>
-    <t>Dewletên Yekbûyî yên Amerîkayê – 库尔德语</t>
-  </si>
-  <si>
-    <t>https://kv.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B0%D1%81%D0%B0_%D3%A6%D1%82%D1%83%D0%B2%D1%82%D1%87%D3%A7%D0%BC_%D0%A8%D1%82%D0%B0%D1%82%D1%8A%D1%8F%D1%81</t>
-  </si>
-  <si>
-    <t>Америкаса Ӧтувтчӧм Штатъяс – 科米语</t>
-  </si>
-  <si>
-    <t>https://kw.wikipedia.org/wiki/Statys_Unys</t>
-  </si>
-  <si>
-    <t>Statys Unys – 康沃尔语</t>
-  </si>
-  <si>
-    <t>https://ky.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B0_%D0%9A%D0%BE%D1%88%D0%BC%D0%BE_%D0%A8%D1%82%D0%B0%D1%82%D1%82%D0%B0%D1%80%D1%8B_(%D0%90%D0%9A%D0%A8)</t>
-  </si>
-  <si>
-    <t>Америка Кошмо Штаттары (АКШ) – 柯尔克孜语</t>
-  </si>
-  <si>
-    <t>https://la.wikipedia.org/wiki/Civitates_Foederatae_Americae</t>
-  </si>
-  <si>
-    <t>Civitates Foederatae Americae – 拉丁语</t>
-  </si>
-  <si>
-    <t>https://lad.wikipedia.org/wiki/Estados_Unidos_de_Amerika</t>
-  </si>
-  <si>
-    <t>Estados Unidos de Amerika – 拉迪诺语</t>
-  </si>
-  <si>
-    <t>https://lb.wikipedia.org/wiki/Vereenegt_Staate_vun_Amerika</t>
-  </si>
-  <si>
-    <t>Vereenegt Staate vun Amerika – 卢森堡语</t>
-  </si>
-  <si>
-    <t>https://lbe.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B0%D0%BD%D0%B0%D0%BB_%D0%A6%D0%B0%D1%87%D3%80%D1%83%D0%BD%D1%85%D1%8C%D1%83_%D0%A8%D1%82%D0%B0%D1%82%D1%80%D1%83</t>
-  </si>
-  <si>
-    <t>Американал ЦачӀунхьу Штатру – Lak</t>
-  </si>
-  <si>
-    <t>https://lez.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B0%D0%B4%D0%B8%D0%BD_%D0%A1%D0%B0%D0%B4%D1%85%D1%8C%D0%B0%D0%BD%D0%B2%D0%B0%D0%B9_%D0%A8%D1%82%D0%B0%D1%82%D0%B0%D1%80</t>
-  </si>
-  <si>
-    <t>Америкадин Садхьанвай Штатар – 列兹金语</t>
-  </si>
-  <si>
-    <t>https://lg.wikipedia.org/wiki/Amerika</t>
-  </si>
-  <si>
-    <t>Amerika – 卢干达语</t>
-  </si>
-  <si>
-    <t>https://li.wikipedia.org/wiki/Vereinegde_Staote_vaan_Amerika</t>
-  </si>
-  <si>
-    <t>Vereinegde Staote vaan Amerika – 林堡语</t>
-  </si>
-  <si>
-    <t>https://lij.wikipedia.org/wiki/Stati_Un%C3%AFi_d%27America</t>
-  </si>
-  <si>
-    <t>Stati Unïi d'America – Ligurian</t>
-  </si>
-  <si>
-    <t>https://lmo.wikipedia.org/wiki/Stat_%C3%9Cn%C3%AC_d%27America</t>
-  </si>
-  <si>
-    <t>Stat Ünì d'America – Lombard</t>
-  </si>
-  <si>
-    <t>https://ln.wikipedia.org/wiki/Lisang%C3%A1_lya_Amer%C3%ADka</t>
-  </si>
-  <si>
-    <t>Lisangá lya Ameríka – 林加拉语</t>
-  </si>
-  <si>
-    <t>https://lo.wikipedia.org/wiki/%E0%BA%AA%E0%BA%B0%E0%BA%AB%E0%BA%B0%E0%BA%A5%E0%BA%B1%E0%BA%94%E0%BA%AD%E0%BA%B2%E0%BB%80%E0%BA%A1%E0%BA%A5%E0%BA%B4%E0%BA%81%E0%BA%B2</t>
-  </si>
-  <si>
-    <t>ສະຫະລັດອາເມລິກາ – 老挝语</t>
-  </si>
-  <si>
-    <t>https://lrc.wikipedia.org/wiki/%DA%A4%D9%88%D9%84%D8%A7%D8%AA%DA%86%D9%87_%DB%8C%D8%A7_%DB%8C%D8%A3%DA%A9%D8%A7%DA%AF%D8%B1%D8%AA%D9%87_%D8%A5%D9%85%D8%B1%D9%8A%DA%A9%D8%A7</t>
-  </si>
-  <si>
-    <t>ڤولاتچه یا یأکاگرته إمريکا – 北卢尔语</t>
-  </si>
-  <si>
-    <t>https://lt.wikipedia.org/wiki/Jungtin%C4%97s_Amerikos_Valstijos</t>
-  </si>
-  <si>
-    <t>Jungtinės Amerikos Valstijos – 立陶宛语</t>
-  </si>
-  <si>
-    <t>https://ltg.wikipedia.org/wiki/Amerikys_Sa%C5%A1kierstuos_Va%C4%BCsteibys</t>
-  </si>
-  <si>
-    <t>Amerikys Saškierstuos Vaļsteibys – Latgalian</t>
-  </si>
-  <si>
-    <t>https://lv.wikipedia.org/wiki/Amerikas_Savienot%C4%81s_Valstis</t>
-  </si>
-  <si>
-    <t>Amerikas Savienotās Valstis – 拉脱维亚语</t>
-  </si>
-  <si>
-    <t>https://mai.wikipedia.org/wiki/%E0%A4%B8%E0%A4%82%E0%A4%AF%E0%A5%81%E0%A4%95%E0%A5%8D%E0%A4%A4_%E0%A4%B0%E0%A4%BE%E0%A4%9C%E0%A5%8D%E0%A4%AF_%E0%A4%85%E0%A4%AE%E0%A5%87%E0%A4%B0%E0%A4%BF%E0%A4%95%E0%A4%BE</t>
-  </si>
-  <si>
-    <t>संयुक्त राज्य अमेरिका – 迈蒂利语</t>
-  </si>
-  <si>
-    <t>https://map-bms.wikipedia.org/wiki/Amerika_Serikat</t>
-  </si>
-  <si>
-    <t>Amerika Serikat – Basa Banyumasan</t>
-  </si>
-  <si>
-    <t>https://mdf.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%BE%D0%BD%D1%8C_%D0%A1%D0%BE%D1%82%D0%BA%D1%81</t>
-  </si>
-  <si>
-    <t>Америконь Соткс – 莫克沙语</t>
-  </si>
-  <si>
-    <t>https://mg.wikipedia.org/wiki/Etazonia</t>
-  </si>
-  <si>
-    <t>Etazonia – 马拉加斯语</t>
-  </si>
-  <si>
-    <t>https://mhr.wikipedia.org/wiki/%D0%A3%D1%88%D1%8B%D0%BC%D0%BE_%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B0%D0%BD_%D0%A8%D1%82%D0%B0%D1%82-%D0%B2%D0%BB%D0%B0%D0%BA</t>
-  </si>
-  <si>
-    <t>Ушымо Американ Штат-влак – Eastern Mari</t>
-  </si>
-  <si>
-    <t>https://mi.wikipedia.org/wiki/Hononga-o-Amerika</t>
-  </si>
-  <si>
-    <t>Hononga-o-Amerika – 毛利语</t>
-  </si>
-  <si>
-    <t>https://min.wikipedia.org/wiki/Amerika_Sarikat</t>
-  </si>
-  <si>
-    <t>Amerika Sarikat – 米南佳保语</t>
-  </si>
-  <si>
-    <t>https://mk.wikipedia.org/wiki/%D0%A1%D0%BE%D0%B5%D0%B4%D0%B8%D0%BD%D0%B5%D1%82%D0%B8_%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B0%D0%BD%D1%81%D0%BA%D0%B8_%D0%94%D1%80%D0%B6%D0%B0%D0%B2%D0%B8</t>
-  </si>
-  <si>
-    <t>Соединети Американски Држави – 马其顿语</t>
-  </si>
-  <si>
-    <t>https://ml.wikipedia.org/wiki/%E0%B4%85%E0%B4%AE%E0%B5%87%E0%B4%B0%E0%B4%BF%E0%B4%95%E0%B5%8D%E0%B4%95%E0%B5%BB_%E0%B4%90%E0%B4%95%E0%B5%8D%E0%B4%AF%E0%B4%A8%E0%B4%BE%E0%B4%9F%E0%B5%81%E0%B4%95%E0%B5%BE</t>
-  </si>
-  <si>
-    <t>അമേരിക്കൻ ഐക്യനാടുകൾ – 马拉雅拉姆语</t>
-  </si>
-  <si>
-    <t>https://mn.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B8%D0%B9%D0%BD_%D0%9D%D1%8D%D0%B3%D0%B4%D1%81%D1%8D%D0%BD_%D0%A3%D0%BB%D1%81</t>
-  </si>
-  <si>
-    <t>Америкийн Нэгдсэн Улс – 蒙古语</t>
-  </si>
-  <si>
-    <t>https://mo.wikipedia.org/wiki/%D0%A1%D1%82%D0%B0%D1%82%D0%B5%D0%BB%D0%B5_%D0%A3%D0%BD%D0%B8%D1%82%D0%B5_%D0%B0%D0%BB%D0%B5_%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D1%87%D0%B8%D0%B9</t>
-  </si>
-  <si>
-    <t>Стателе Уните але Америчий – молдовеняскэ</t>
-  </si>
-  <si>
-    <t>https://mr.wikipedia.org/wiki/%E0%A4%85%E0%A4%AE%E0%A5%87%E0%A4%B0%E0%A4%BF%E0%A4%95%E0%A5%87%E0%A4%9A%E0%A5%80_%E0%A4%B8%E0%A4%82%E0%A4%AF%E0%A5%81%E0%A4%95%E0%A5%8D%E0%A4%A4_%E0%A4%B8%E0%A4%82%E0%A4%B8%E0%A5%8D%E0%A4%A5%E0%A4%BE%E0%A4%A8%E0%A5%87</t>
-  </si>
-  <si>
-    <t>अमेरिकेची संयुक्त संस्थाने – 马拉地语</t>
-  </si>
-  <si>
-    <t>https://mrj.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D1%8B%D0%BD_%D0%A3%D1%88%D1%8B%D0%BC%D1%8B_%D0%A8%D1%82%D0%B0%D1%82%D0%B2%D0%BB%D3%93%D0%B6%D3%B9</t>
-  </si>
-  <si>
-    <t>Америкын Ушымы Штатвлӓжӹ – Western Mari</t>
-  </si>
-  <si>
-    <t>https://ms.wikipedia.org/wiki/Amerika_Syarikat</t>
-  </si>
-  <si>
-    <t>Amerika Syarikat – 马来语</t>
-  </si>
-  <si>
-    <t>https://mt.wikipedia.org/wiki/Stati_Uniti</t>
-  </si>
-  <si>
-    <t>Stati Uniti – 马耳他语</t>
-  </si>
-  <si>
-    <t>https://mwl.wikipedia.org/wiki/Stados_Ounidos_de_la_Am%C3%A9rica</t>
-  </si>
-  <si>
-    <t>Stados Ounidos de la América – 米兰德斯语</t>
-  </si>
-  <si>
-    <t>https://my.wikipedia.org/wiki/%E1%80%A1%E1%80%99%E1%80%B1%E1%80%9B%E1%80%AD%E1%80%80%E1%80%94%E1%80%BA%E1%80%95%E1%80%BC%E1%80%8A%E1%80%BA%E1%80%91%E1%80%B1%E1%80%AC%E1%80%84%E1%80%BA%E1%80%85%E1%80%AF</t>
-  </si>
-  <si>
-    <t>အမေရိကန်ပြည်ထောင်စု – 缅甸语</t>
-  </si>
-  <si>
-    <t>https://myv.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B0%D0%BD%D1%8C_%D0%92%D0%B5%D0%B9%D1%82%D1%8C%D1%81%D1%8D%D0%BD%D0%B4%D1%8F%D0%B2%D0%BA%D1%81_%D0%A8%D1%82%D0%B0%D1%82%D1%82%D0%BD%D1%8D</t>
-  </si>
-  <si>
-    <t>Американь Вейтьсэндявкс Штаттнэ – 厄尔兹亚语</t>
-  </si>
-  <si>
-    <t>https://mzn.wikipedia.org/wiki/%D8%A2%D9%85%D8%B1%DB%8C%DA%A9%D8%A7%DB%8C_%D9%85%D8%AA%D8%AD%D8%AF%D9%87_%D8%A7%DB%8C%D8%A7%D9%84%D8%A7%D8%AA</t>
-  </si>
-  <si>
-    <t>آمریکای متحده ایالات – 马赞德兰语</t>
-  </si>
-  <si>
-    <t>https://na.wikipedia.org/wiki/Eben_Merika</t>
-  </si>
-  <si>
-    <t>Eben Merika – 瑙鲁语</t>
-  </si>
-  <si>
-    <t>https://nah.wikipedia.org/wiki/Tlacetililli_Tlahtohcayotl_Ixachitlan</t>
-  </si>
-  <si>
-    <t>Tlacetililli Tlahtohcayotl Ixachitlan – Nāhuatl</t>
-  </si>
-  <si>
-    <t>https://nap.wikipedia.org/wiki/State_Aunite_d%27Amereca</t>
-  </si>
-  <si>
-    <t>State Aunite d'Amereca – 那不勒斯语</t>
-  </si>
-  <si>
-    <t>https://nds.wikipedia.org/wiki/USA</t>
-  </si>
-  <si>
-    <t>USA – 低地德语</t>
-  </si>
-  <si>
-    <t>https://nds-nl.wikipedia.org/wiki/Verienigde_Staoten_van_Amerika</t>
-  </si>
-  <si>
-    <t>Verienigde Staoten van Amerika – 低萨克森语</t>
-  </si>
-  <si>
-    <t>https://ne.wikipedia.org/wiki/%E0%A4%B8%E0%A4%82%E0%A4%AF%E0%A5%81%E0%A4%95%E0%A5%8D%E0%A4%A4_%E0%A4%B0%E0%A4%BE%E0%A4%9C%E0%A5%8D%E0%A4%AF_%E0%A4%85%E0%A4%AE%E0%A5%87%E0%A4%B0%E0%A4%BF%E0%A4%95%E0%A4%BE</t>
-  </si>
-  <si>
-    <t>संयुक्त राज्य अमेरिका – 尼泊尔语</t>
-  </si>
-  <si>
-    <t>https://new.wikipedia.org/wiki/%E0%A4%85%E0%A4%AE%E0%A5%87%E0%A4%B0%E0%A4%BF%E0%A4%95%E0%A4%BE</t>
-  </si>
-  <si>
-    <t>अमेरिका – 尼瓦尔语</t>
-  </si>
-  <si>
-    <t>https://nl.wikipedia.org/wiki/Verenigde_Staten</t>
-  </si>
-  <si>
-    <t>Verenigde Staten – 荷兰语</t>
-  </si>
-  <si>
-    <t>https://nn.wikipedia.org/wiki/USA</t>
-  </si>
-  <si>
-    <t>USA – 挪威尼诺斯克语</t>
-  </si>
-  <si>
-    <t>https://no.wikipedia.org/wiki/USA</t>
-  </si>
-  <si>
-    <t>USA – 挪威语</t>
-  </si>
-  <si>
-    <t>https://nov.wikipedia.org/wiki/Unionati_States_de_Amerika</t>
-  </si>
-  <si>
-    <t>Unionati States de Amerika – Novial</t>
-  </si>
-  <si>
-    <t>https://nrm.wikipedia.org/wiki/%C3%8Atats_Unnis_d%27Am%C3%A9thique</t>
-  </si>
-  <si>
-    <t>Êtats Unnis d'Améthique – Norman</t>
-  </si>
-  <si>
-    <t>https://nso.wikipedia.org/wiki/United_States_of_America</t>
-  </si>
-  <si>
-    <t>United States of America – 北索托语</t>
-  </si>
-  <si>
-    <t>https://nv.wikipedia.org/wiki/W%C3%A1%C3%A1shindoon_Bik%C3%A9yah_A%C5%82hidadiidzoo%C3%ADg%C3%AD%C3%AD</t>
-  </si>
-  <si>
-    <t>Wááshindoon Bikéyah Ałhidadiidzooígíí – 纳瓦霍语</t>
-  </si>
-  <si>
-    <t>https://ny.wikipedia.org/wiki/United_States</t>
-  </si>
-  <si>
-    <t>United States – 齐切瓦语</t>
-  </si>
-  <si>
-    <t>https://oc.wikipedia.org/wiki/Estats_Units_d%27America</t>
-  </si>
-  <si>
-    <t>Estats Units d'America – 奥克语</t>
-  </si>
-  <si>
-    <t>https://olo.wikipedia.org/wiki/Amerikan_Yhtysvallat</t>
-  </si>
-  <si>
-    <t>Amerikan Yhtysvallat – Livvi-Karelian</t>
-  </si>
-  <si>
-    <t>https://om.wikipedia.org/wiki/Yunaayitid_Isteetsi</t>
-  </si>
-  <si>
-    <t>Yunaayitid Isteetsi – 奥罗莫语</t>
-  </si>
-  <si>
-    <t>https://or.wikipedia.org/wiki/%E0%AC%AF%E0%AD%81%E0%AC%95%E0%AD%8D%E0%AC%A4%E0%AC%B0%E0%AC%BE%E0%AC%B7%E0%AD%8D%E0%AC%9F%E0%AD%8D%E0%AC%B0_%E0%AC%86%E0%AC%AE%E0%AD%87%E0%AC%B0%E0%AC%BF%E0%AC%95%E0%AC%BE</t>
-  </si>
-  <si>
-    <t>ଯୁକ୍ତରାଷ୍ଟ୍ର ଆମେରିକା – 奥里亚语</t>
-  </si>
-  <si>
-    <t>https://os.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%C3%A6%D0%B9%D1%8B_%D0%98%D1%83%D0%B3%D0%BE%D0%BD%D0%B4_%D0%A8%D1%82%D0%B0%D1%82%D1%82%C3%A6</t>
-  </si>
-  <si>
-    <t>Америкæйы Иугонд Штаттæ – 奥塞梯语</t>
-  </si>
-  <si>
-    <t>https://pa.wikipedia.org/wiki/%E0%A8%B8%E0%A9%B0%E0%A8%AF%E0%A9%81%E0%A8%95%E0%A8%A4_%E0%A8%B0%E0%A8%BE%E0%A8%9C_%E0%A8%85%E0%A8%AE%E0%A8%B0%E0%A9%80%E0%A8%95%E0%A8%BE</t>
-  </si>
-  <si>
-    <t>ਸੰਯੁਕਤ ਰਾਜ ਅਮਰੀਕਾ – 旁遮普语</t>
-  </si>
-  <si>
-    <t>https://pag.wikipedia.org/wiki/Estados_Unidos</t>
-  </si>
-  <si>
-    <t>Estados Unidos – 邦阿西南语</t>
-  </si>
-  <si>
-    <t>https://pam.wikipedia.org/wiki/Estados_Unidos</t>
-  </si>
-  <si>
-    <t>Estados Unidos – 邦板牙语</t>
-  </si>
-  <si>
-    <t>https://pap.wikipedia.org/wiki/Estadonan_Uni_di_Merka</t>
-  </si>
-  <si>
-    <t>Estadonan Uni di Merka – 帕皮阿门托语</t>
-  </si>
-  <si>
-    <t>https://pcd.wikipedia.org/wiki/%C3%89tats-Unis_Anm%C3%A9rikes</t>
-  </si>
-  <si>
-    <t>États-Unis Anmérikes – Picard</t>
-  </si>
-  <si>
-    <t>https://pdc.wikipedia.org/wiki/Amerikaa</t>
-  </si>
-  <si>
-    <t>Amerikaa – Pennsylvania German</t>
-  </si>
-  <si>
-    <t>https://pfl.wikipedia.org/wiki/Vereinigte_Staaten_von_Amerika</t>
-  </si>
-  <si>
-    <t>Vereinigte Staaten von Amerika – Palatine German</t>
-  </si>
-  <si>
-    <t>https://pi.wikipedia.org/wiki/%E0%A4%B8%E0%A4%82%E0%A4%AF%E0%A5%81%E0%A4%95%E0%A5%8D%E0%A4%A4_%E0%A4%B0%E0%A4%BE%E0%A4%9C%E0%A5%8D%E0%A4%AF_%E0%A4%85%E0%A4%AE%E0%A5%87%E0%A4%B0%E0%A4%BF%E0%A4%95%E0%A4%BE</t>
-  </si>
-  <si>
-    <t>संयुक्त राज्य अमेरिका – 巴利语</t>
-  </si>
-  <si>
-    <t>https://pih.wikipedia.org/wiki/Yunitid_Staits</t>
-  </si>
-  <si>
-    <t>Yunitid Staits – Norfuk / Pitkern</t>
-  </si>
-  <si>
-    <t>https://pl.wikipedia.org/wiki/Stany_Zjednoczone</t>
-  </si>
-  <si>
-    <t>Stany Zjednoczone – 波兰语</t>
-  </si>
-  <si>
-    <t>https://pms.wikipedia.org/wiki/Stat_Un%C3%AC_d%27Am%C3%A9rica</t>
-  </si>
-  <si>
-    <t>Stat Unì d'América – Piedmontese</t>
-  </si>
-  <si>
-    <t>https://pnb.wikipedia.org/wiki/%D8%A7%D9%85%D8%B1%DB%8C%DA%A9%DB%81</t>
-  </si>
-  <si>
-    <t>امریکہ – Western Punjabi</t>
-  </si>
-  <si>
-    <t>https://ps.wikipedia.org/wiki/%D8%AF_%D8%A7%D9%85%D8%B1%D9%8A%DA%A9%D8%A7_%D9%85%D8%AA%D8%AD%D8%AF%D9%87_%D8%A7%D9%8A%D8%A7%D9%84%D8%AA%D9%88%D9%86%D9%87</t>
-  </si>
-  <si>
-    <t>د امريکا متحده ايالتونه – 普什图语</t>
-  </si>
-  <si>
-    <t>https://pt.wikipedia.org/wiki/Estados_Unidos</t>
-  </si>
-  <si>
-    <t>Estados Unidos – 葡萄牙语</t>
-  </si>
-  <si>
-    <t>https://qu.wikipedia.org/wiki/Hukllachasqa_Amirika_Suyukuna</t>
-  </si>
-  <si>
-    <t>Hukllachasqa Amirika Suyukuna – 克丘亚语</t>
-  </si>
-  <si>
-    <t>https://rm.wikipedia.org/wiki/Stadis_Unids</t>
-  </si>
-  <si>
-    <t>Stadis Unids – 罗曼什语</t>
-  </si>
-  <si>
-    <t>https://rmy.wikipedia.org/wiki/Phandle_Staturya_la_Amerikiyake</t>
-  </si>
-  <si>
-    <t>Phandle Staturya la Amerikiyake – Romani</t>
-  </si>
-  <si>
-    <t>https://rn.wikipedia.org/wiki/Leta_z%E2%80%99Unze_Ubumwe_za_Amerika</t>
-  </si>
-  <si>
-    <t>Leta z’Unze Ubumwe za Amerika – 隆迪语</t>
-  </si>
-  <si>
-    <t>https://ro.wikipedia.org/wiki/Statele_Unite_ale_Americii</t>
-  </si>
-  <si>
-    <t>Statele Unite ale Americii – 罗马尼亚语</t>
-  </si>
-  <si>
-    <t>https://roa-rup.wikipedia.org/wiki/Statili_Uniti_ali_America</t>
-  </si>
-  <si>
-    <t>Statili Uniti ali America – Aromanian</t>
-  </si>
-  <si>
-    <t>https://roa-tara.wikipedia.org/wiki/Stat%C3%A8re_Aun%C3%ACte_d%27Americhe</t>
-  </si>
-  <si>
-    <t>Statère Aunìte d'Americhe – Tarantino</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%A1%D0%BE%D0%B5%D0%B4%D0%B8%D0%BD%D1%91%D0%BD%D0%BD%D1%8B%D0%B5_%D0%A8%D1%82%D0%B0%D1%82%D1%8B_%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B8</t>
-  </si>
-  <si>
-    <t>Соединённые Штаты Америки – 俄语</t>
-  </si>
-  <si>
-    <t>https://rue.wikipedia.org/wiki/%D0%A1%D0%BF%D0%BE%D1%94%D0%BD%D1%8B_%D0%A8%D1%82%D0%B0%D1%82%D1%8B_%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D1%86%D1%8C%D0%BA%D1%8B</t>
-  </si>
-  <si>
-    <t>Споєны Штаты Америцькы – Rusyn</t>
-  </si>
-  <si>
-    <t>https://rw.wikipedia.org/wiki/Leta_Zunze_Ubumwe_z%E2%80%99Amerika</t>
-  </si>
-  <si>
-    <t>Leta Zunze Ubumwe z’Amerika – 卢旺达语</t>
-  </si>
-  <si>
-    <t>https://sa.wikipedia.org/wiki/%E0%A4%85%E0%A4%AE%E0%A5%87%E0%A4%B0%E0%A4%BF%E0%A4%95%E0%A4%BE%E0%A4%B8%E0%A4%82%E0%A4%AF%E0%A5%81%E0%A4%95%E0%A5%8D%E0%A4%A4%E0%A4%B0%E0%A4%BE%E0%A4%9C%E0%A5%8D%E0%A4%AF%E0%A4%AE%E0%A5%8D</t>
-  </si>
-  <si>
-    <t>अमेरिकासंयुक्तराज्यम् – 梵语</t>
-  </si>
-  <si>
-    <t>https://sah.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B0_%D0%A5%D0%BE%D0%BB%D0%B1%D0%BE%D2%BB%D1%83%D0%BA%D1%82%D0%B0%D0%B0%D1%85_%D0%A8%D1%82%D0%B0%D0%B0%D1%82%D1%82%D0%B0%D1%80%D0%B0</t>
-  </si>
-  <si>
-    <t>Америка Холбоһуктаах Штааттара – 萨哈语</t>
-  </si>
-  <si>
-    <t>https://sc.wikipedia.org/wiki/Istados_Unidos_de_Am%C3%A8rica</t>
-  </si>
-  <si>
-    <t>Istados Unidos de Amèrica – 萨丁语</t>
-  </si>
-  <si>
-    <t>https://scn.wikipedia.org/wiki/Stati_Uniti</t>
-  </si>
-  <si>
-    <t>Stati Uniti – 西西里语</t>
-  </si>
-  <si>
-    <t>https://sco.wikipedia.org/wiki/Unitit_States</t>
-  </si>
-  <si>
-    <t>Unitit States – 苏格兰语</t>
-  </si>
-  <si>
-    <t>https://sd.wikipedia.org/wiki/%DA%AF%DA%8F%D9%8A%D9%84_%D8%A2%D9%85%D8%B1%D9%8A%DA%AA%D9%8A_%D8%B1%D9%8A%D8%A7%D8%B3%D8%AA%D9%88%D9%86</t>
-  </si>
-  <si>
-    <t>گڏيل آمريڪي رياستون – 信德语</t>
-  </si>
-  <si>
-    <t>https://se.wikipedia.org/wiki/Amerihk%C3%A1_ovttastuvvan_st%C3%A1htat</t>
-  </si>
-  <si>
-    <t>Amerihká ovttastuvvan stáhtat – 北方萨米语</t>
-  </si>
-  <si>
-    <t>https://sg.wikipedia.org/wiki/%C3%82K%C3%B6d%C3%B6r%C3%B6-%C3%B4ko_t%C3%AE_Amer%C3%AEka</t>
-  </si>
-  <si>
-    <t>ÂKödörö-ôko tî Amerîka – 桑戈语</t>
-  </si>
-  <si>
-    <t>https://sh.wikipedia.org/wiki/Sjedinjene_Ameri%C4%8Dke_Dr%C5%BEave</t>
-  </si>
-  <si>
-    <t>Sjedinjene Američke Države – 塞尔维亚-克罗地亚语</t>
-  </si>
-  <si>
-    <t>https://si.wikipedia.org/wiki/%E0%B6%91%E0%B6%9A%E0%B7%8A%E0%B7%83%E0%B6%AD%E0%B7%8A_%E0%B6%A2%E0%B6%B1%E0%B6%B4%E0%B6%AF%E0%B6%BA</t>
-  </si>
-  <si>
-    <t>එක්සත් ජනපදය – 僧伽罗语</t>
-  </si>
-  <si>
-    <t>https://simple.wikipedia.org/wiki/United_States</t>
-  </si>
-  <si>
-    <t>United States – Simple English</t>
-  </si>
-  <si>
-    <t>https://sk.wikipedia.org/wiki/Spojen%C3%A9_%C5%A1t%C3%A1ty</t>
-  </si>
-  <si>
-    <t>Spojené štáty – 斯洛伐克语</t>
-  </si>
-  <si>
-    <t>https://sl.wikipedia.org/wiki/Zdru%C5%BEene_dr%C5%BEave_Amerike</t>
-  </si>
-  <si>
-    <t>Združene države Amerike – 斯洛文尼亚语</t>
-  </si>
-  <si>
-    <t>https://sm.wikipedia.org/wiki/Iunaite_Sitete_o_Amerika</t>
-  </si>
-  <si>
-    <t>Iunaite Sitete o Amerika – 萨摩亚语</t>
-  </si>
-  <si>
-    <t>https://sn.wikipedia.org/wiki/United_States_of_America</t>
-  </si>
-  <si>
-    <t>United States of America – 绍纳语</t>
-  </si>
-  <si>
-    <t>https://so.wikipedia.org/wiki/Gobolada_Isku_Tegay_ee_Ameerika</t>
-  </si>
-  <si>
-    <t>Gobolada Isku Tegay ee Ameerika – 索马里语</t>
-  </si>
-  <si>
-    <t>https://sq.wikipedia.org/wiki/Shtetet_e_Bashkuara_t%C3%AB_Amerik%C3%ABs</t>
-  </si>
-  <si>
-    <t>Shtetet e Bashkuara të Amerikës – 阿尔巴尼亚语</t>
-  </si>
-  <si>
-    <t>https://sr.wikipedia.org/wiki/%D0%A1%D1%98%D0%B5%D0%B4%D0%B8%D1%9A%D0%B5%D0%BD%D0%B5_%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D1%87%D0%BA%D0%B5_%D0%94%D1%80%D0%B6%D0%B0%D0%B2%D0%B5</t>
-  </si>
-  <si>
-    <t>Сједињене Америчке Државе – 塞尔维亚语</t>
-  </si>
-  <si>
-    <t>https://srn.wikipedia.org/wiki/Kondre_Makandrameki</t>
-  </si>
-  <si>
-    <t>Kondre Makandrameki – 苏里南汤加语</t>
-  </si>
-  <si>
-    <t>https://ss.wikipedia.org/wiki/IMelika_(live)</t>
-  </si>
-  <si>
-    <t>IMelika (live) – 斯瓦蒂语</t>
-  </si>
-  <si>
-    <t>https://st.wikipedia.org/wiki/United_States_of_America</t>
-  </si>
-  <si>
-    <t>United States of America – 南索托语</t>
-  </si>
-  <si>
-    <t>https://stq.wikipedia.org/wiki/Fereende_Stoaten_fon_Amerikoa</t>
-  </si>
-  <si>
-    <t>Fereende Stoaten fon Amerikoa – Saterland Frisian</t>
-  </si>
-  <si>
-    <t>https://su.wikipedia.org/wiki/Am%C3%A9rika_Sarikat</t>
-  </si>
-  <si>
-    <t>Amérika Sarikat – 巽他语</t>
-  </si>
-  <si>
-    <t>https://sv.wikipedia.org/wiki/USA</t>
-  </si>
-  <si>
-    <t>USA – 瑞典语</t>
-  </si>
-  <si>
-    <t>https://sw.wikipedia.org/wiki/Marekani</t>
-  </si>
-  <si>
-    <t>Marekani – 斯瓦希里语</t>
-  </si>
-  <si>
-    <t>https://szl.wikipedia.org/wiki/Zjednocz%C5%AFne_Sztaty</t>
-  </si>
-  <si>
-    <t>Zjednoczůne Sztaty – Silesian</t>
-  </si>
-  <si>
-    <t>https://ta.wikipedia.org/wiki/%E0%AE%85%E0%AE%AE%E0%AF%86%E0%AE%B0%E0%AE%BF%E0%AE%95%E0%AF%8D%E0%AE%95_%E0%AE%90%E0%AE%95%E0%AF%8D%E0%AE%95%E0%AE%BF%E0%AE%AF_%E0%AE%A8%E0%AE%BE%E0%AE%9F%E0%AF%81</t>
-  </si>
-  <si>
-    <t>அமெரிக்க ஐக்கிய நாடு – 泰米尔语</t>
-  </si>
-  <si>
-    <t>https://tcy.wikipedia.org/wiki/%E0%B2%85%E0%B2%AE%E0%B3%87%E0%B2%B0%E0%B2%BF%E0%B2%95%E0%B2%A6_%E0%B2%B8%E0%B2%82%E0%B2%AF%E0%B3%81%E0%B2%95%E0%B3%8D%E0%B2%A4_%E0%B2%B8%E0%B2%82%E0%B2%B8%E0%B3%8D%E0%B2%A5%E0%B2%BE%E0%B2%A8%E0%B3%8A%E0%B2%B2%E0%B3%81</t>
-  </si>
-  <si>
-    <t>ಅಮೇರಿಕದ ಸಂಯುಕ್ತ ಸಂಸ್ಥಾನೊಲು – Tulu</t>
-  </si>
-  <si>
-    <t>https://te.wikipedia.org/wiki/%E0%B0%85%E0%B0%AE%E0%B1%86%E0%B0%B0%E0%B0%BF%E0%B0%95%E0%B0%BE_%E0%B0%B8%E0%B0%82%E0%B0%AF%E0%B1%81%E0%B0%95%E0%B1%8D%E0%B0%A4_%E0%B0%B0%E0%B0%BE%E0%B0%B7%E0%B1%8D%E0%B0%9F%E0%B1%8D%E0%B0%B0%E0%B0%BE%E0%B0%B2%E0%B1%81</t>
-  </si>
-  <si>
-    <t>అమెరికా సంయుక్త రాష్ట్రాలు – 泰卢固语</t>
-  </si>
-  <si>
-    <t>https://tet.wikipedia.org/wiki/Estadu_Naklibur_Sira_Am%C3%A9rika_Nian</t>
-  </si>
-  <si>
-    <t>Estadu Naklibur Sira Amérika Nian – 德顿语</t>
-  </si>
-  <si>
-    <t>https://tg.wikipedia.org/wiki/%D0%98%D1%91%D0%BB%D0%BE%D1%82%D0%B8_%D0%9C%D1%83%D1%82%D1%82%D0%B0%D2%B3%D0%B8%D0%B4%D0%B0%D0%B8_%D0%90%D0%BC%D1%80%D0%B8%D0%BA%D0%BE</t>
-  </si>
-  <si>
-    <t>Иёлоти Муттаҳидаи Амрико – 塔吉克语</t>
-  </si>
-  <si>
-    <t>https://th.wikipedia.org/wiki/%E0%B8%AA%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%90</t>
-  </si>
-  <si>
-    <t>สหรัฐ – 泰语</t>
-  </si>
-  <si>
-    <t>https://ti.wikipedia.org/wiki/%E1%8B%A9%E1%8A%93%E1%8B%AD%E1%89%B5%E1%8B%B5_%E1%88%B5%E1%89%B4%E1%89%B5%E1%88%B5</t>
-  </si>
-  <si>
-    <t>ዩናይትድ ስቴትስ – 提格利尼亚语</t>
-  </si>
-  <si>
-    <t>https://tk.wikipedia.org/wiki/Amerikany%C5%88_Birle%C5%9Fen_%C5%9Etatlary</t>
-  </si>
-  <si>
-    <t>Amerikanyň Birleşen Ştatlary – 土库曼语</t>
-  </si>
-  <si>
-    <t>https://tl.wikipedia.org/wiki/Estados_Unidos</t>
-  </si>
-  <si>
-    <t>Estados Unidos – 他加禄语</t>
-  </si>
-  <si>
-    <t>https://tn.wikipedia.org/wiki/USA</t>
-  </si>
-  <si>
-    <t>USA – 茨瓦纳语</t>
-  </si>
-  <si>
-    <t>https://tpi.wikipedia.org/wiki/Ol_Yunaitet_Stet</t>
-  </si>
-  <si>
-    <t>Ol Yunaitet Stet – 托克皮辛语</t>
-  </si>
-  <si>
-    <t>https://tr.wikipedia.org/wiki/Amerika_Birle%C5%9Fik_Devletleri</t>
-  </si>
-  <si>
-    <t>Amerika Birleşik Devletleri – 土耳其语</t>
-  </si>
-  <si>
-    <t>https://ts.wikipedia.org/wiki/Amerikha</t>
-  </si>
-  <si>
-    <t>Amerikha – 聪加语</t>
-  </si>
-  <si>
-    <t>https://tt.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B0_%D0%9A%D1%83%D1%88%D0%BC%D0%B0_%D0%A8%D1%82%D0%B0%D1%82%D0%BB%D0%B0%D1%80%D1%8B</t>
-  </si>
-  <si>
-    <t>Америка Кушма Штатлары – 鞑靼语</t>
-  </si>
-  <si>
-    <t>https://tum.wikipedia.org/wiki/United_States</t>
-  </si>
-  <si>
-    <t>United States – 通布卡语</t>
-  </si>
-  <si>
-    <t>https://tw.wikipedia.org/wiki/USA</t>
-  </si>
-  <si>
-    <t>USA – 契维语</t>
-  </si>
-  <si>
-    <t>https://ty.wikipedia.org/wiki/Fenua_Marite</t>
-  </si>
-  <si>
-    <t>Fenua Marite – 塔希提语</t>
-  </si>
-  <si>
-    <t>https://udm.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B0%D0%BB%D1%8D%D0%BD_%D0%9E%D0%B3%D0%B0%D0%B7%D0%B5%D1%8F%D1%81%D1%8C%D0%BA%D0%B5%D0%BC_%D0%A8%D1%82%D0%B0%D1%82%D1%8A%D1%91%D1%81%D1%8B%D0%B7</t>
-  </si>
-  <si>
-    <t>Америкалэн Огазеяськем Штатъёсыз – 乌德穆尔特语</t>
-  </si>
-  <si>
-    <t>https://ug.wikipedia.org/wiki/%D8%A6%D8%A7%D9%85%DB%90%D8%B1%D9%89%D9%83%D8%A7_%D9%82%D9%88%D8%B4%D9%85%D8%A7_%D8%B4%D9%89%D8%AA%D8%A7%D8%AA%D9%84%D9%89%D8%B1%D9%89</t>
-  </si>
-  <si>
-    <t>ئامېرىكا قوشما شىتاتلىرى – 维吾尔语</t>
-  </si>
-  <si>
-    <t>https://uk.wikipedia.org/wiki/%D0%A1%D0%BF%D0%BE%D0%BB%D1%83%D1%87%D0%B5%D0%BD%D1%96_%D0%A8%D1%82%D0%B0%D1%82%D0%B8_%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B8</t>
-  </si>
-  <si>
-    <t>Сполучені Штати Америки – 乌克兰语</t>
-  </si>
-  <si>
-    <t>https://ur.wikipedia.org/wiki/%D8%B1%DB%8C%D8%A7%D8%B3%D8%AA%DB%81%D8%A7%D8%A6%DB%92_%D9%85%D8%AA%D8%AD%D8%AF%DB%81_%D8%A7%D9%85%D8%B1%DB%8C%DA%A9%D8%A7</t>
-  </si>
-  <si>
-    <t>ریاستہائے متحدہ امریکا – 乌尔都语</t>
-  </si>
-  <si>
-    <t>https://uz.wikipedia.org/wiki/Amerika_Qo%CA%BBshma_Shtatlari</t>
-  </si>
-  <si>
-    <t>Amerika Qoʻshma Shtatlari – 乌兹别克语</t>
-  </si>
-  <si>
-    <t>https://vec.wikipedia.org/wiki/Stati_Unii_de_%C5%82a_M%C3%A8rica</t>
-  </si>
-  <si>
-    <t>Stati Unii de ła Mèrica – Venetian</t>
-  </si>
-  <si>
-    <t>https://vep.wikipedia.org/wiki/Amerikan_%C3%9Chtenzoittud_Valdkundad</t>
-  </si>
-  <si>
-    <t>Amerikan Ühtenzoittud Valdkundad – 维普森语</t>
-  </si>
-  <si>
-    <t>https://vi.wikipedia.org/wiki/Hoa_K%E1%BB%B3</t>
-  </si>
-  <si>
-    <t>Hoa Kỳ – 越南语</t>
-  </si>
-  <si>
-    <t>https://vls.wikipedia.org/wiki/Ver%C3%AAnigde_Stoaten_van_Amerika</t>
-  </si>
-  <si>
-    <t>Verênigde Stoaten van Amerika – West Flemish</t>
-  </si>
-  <si>
-    <t>https://vo.wikipedia.org/wiki/Lamerik%C3%A4n</t>
-  </si>
-  <si>
-    <t>Lamerikän – 沃拉普克语</t>
-  </si>
-  <si>
-    <t>https://wa.wikipedia.org/wiki/Estats_Unis</t>
-  </si>
-  <si>
-    <t>Estats Unis – 瓦隆语</t>
-  </si>
-  <si>
-    <t>https://war.wikipedia.org/wiki/Estados_Unidos</t>
-  </si>
-  <si>
-    <t>Estados Unidos – 瓦瑞语</t>
-  </si>
-  <si>
-    <t>https://wo.wikipedia.org/wiki/Diiwaan_yu_Bennoo</t>
-  </si>
-  <si>
-    <t>Diiwaan yu Bennoo – 沃洛夫语</t>
-  </si>
-  <si>
-    <t>https://wuu.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国 – 吴语</t>
-  </si>
-  <si>
-    <t>https://xal.wikipedia.org/wiki/%D0%90%D0%BC%D0%B5%D1%80%D0%B8%D0%BA%D0%B8%D0%BD_%D0%9D%D0%B8%D0%B8%D1%86%D3%99%D1%82%D3%99_%D0%9E%D1%80%D0%BD_%D0%9D%D1%83%D1%82%D1%83%D0%B3%D1%83%D0%B4</t>
-  </si>
-  <si>
-    <t>Америкин Ниицәтә Орн Нутугуд – 卡尔梅克语</t>
-  </si>
-  <si>
-    <t>https://xh.wikipedia.org/wiki/IYunayithedi_Steyitsi</t>
-  </si>
-  <si>
-    <t>IYunayithedi Steyitsi – 科萨语</t>
-  </si>
-  <si>
-    <t>https://xmf.wikipedia.org/wiki/%E1%83%90%E1%83%9B%E1%83%94%E1%83%A0%E1%83%98%E1%83%99%E1%83%90%E1%83%A8_%E1%83%90%E1%83%99%E1%83%9D%E1%83%90%E1%83%A0%E1%83%97%E1%83%90%E1%83%A4%E1%83%98%E1%83%9A%E1%83%98_%E1%83%A8%E1%83%A2%E1%83%90%E1%83%A2%E1%83%94%E1%83%A4%E1%83%98</t>
-  </si>
-  <si>
-    <t>ამერიკაშ აკოართაფილი შტატეფი – Mingrelian</t>
-  </si>
-  <si>
-    <t>https://yi.wikipedia.org/wiki/%D7%A4%D7%90%D7%A8%D7%90%D7%99%D7%99%D7%A0%D7%99%D7%A7%D7%98%D7%A2_%D7%A9%D7%98%D7%90%D7%98%D7%9F_%D7%A4%D7%95%D7%9F_%D7%90%D7%9E%D7%A2%D7%A8%D7%99%D7%A7%D7%A2</t>
-  </si>
-  <si>
-    <t>פאראייניקטע שטאטן פון אמעריקע – 意第绪语</t>
-  </si>
-  <si>
-    <t>https://yo.wikipedia.org/wiki/%C3%80w%E1%BB%8Dn_%C3%8Cp%C3%ADnl%E1%BA%B9%CC%80_A%E1%B9%A3%E1%BB%8D%CC%80kan_il%E1%BA%B9%CC%80_Am%E1%BA%B9%CC%81r%C3%ADk%C3%A0</t>
-  </si>
-  <si>
-    <t>Àwọn Ìpínlẹ̀ Aṣọ̀kan ilẹ̀ Amẹ́ríkà – 约鲁巴语</t>
-  </si>
-  <si>
-    <t>https://za.wikipedia.org/wiki/Meijgoz</t>
-  </si>
-  <si>
-    <t>Meijgoz – 壮语</t>
-  </si>
-  <si>
-    <t>https://zea.wikipedia.org/wiki/Vere%C3%AAnigde_Staeten</t>
-  </si>
-  <si>
-    <t>Vereênigde Staeten – Zeelandic</t>
-  </si>
-  <si>
-    <t>https://zh-classical.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國 – Classical Chinese</t>
-  </si>
-  <si>
-    <t>https://zh-min-nan.wikipedia.org/wiki/B%C3%AD-kok</t>
-  </si>
-  <si>
-    <t>Bí-kok – Chinese (Min Nan)</t>
-  </si>
-  <si>
-    <t>https://zh-yue.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國 – Cantonese</t>
-  </si>
-  <si>
-    <t>https://zu.wikipedia.org/wiki/IMelika</t>
-  </si>
-  <si>
-    <t>IMelika – 祖鲁语</t>
   </si>
 </sst>
 </file>
@@ -11247,7 +9567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2002"/>
+  <dimension ref="A1:I1722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17971,7 +16291,7 @@
         <v>446</v>
       </c>
       <c r="G232" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -52365,7 +50685,7 @@
         <v>2518</v>
       </c>
       <c r="G1418" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1418" t="s">
         <v>4</v>
@@ -61187,8126 +59507,6 @@
         <v>4</v>
       </c>
       <c r="I1722" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1723" spans="1:9">
-      <c r="A1723" s="1" t="n">
-        <v>1721</v>
-      </c>
-      <c r="B1723" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1723" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1723" t="n">
-        <v>1722</v>
-      </c>
-      <c r="E1723" t="s">
-        <v>3068</v>
-      </c>
-      <c r="F1723" t="s">
-        <v>3069</v>
-      </c>
-      <c r="G1723" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1723" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1723" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1724" spans="1:9">
-      <c r="A1724" s="1" t="n">
-        <v>1722</v>
-      </c>
-      <c r="B1724" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1724" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1724" t="n">
-        <v>1723</v>
-      </c>
-      <c r="E1724" t="s">
-        <v>3070</v>
-      </c>
-      <c r="F1724" t="s">
-        <v>3071</v>
-      </c>
-      <c r="G1724" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1724" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1724" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1725" spans="1:9">
-      <c r="A1725" s="1" t="n">
-        <v>1723</v>
-      </c>
-      <c r="B1725" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1725" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1725" t="n">
-        <v>1724</v>
-      </c>
-      <c r="E1725" t="s">
-        <v>3072</v>
-      </c>
-      <c r="F1725" t="s">
-        <v>3073</v>
-      </c>
-      <c r="G1725" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1725" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1725" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1726" spans="1:9">
-      <c r="A1726" s="1" t="n">
-        <v>1724</v>
-      </c>
-      <c r="B1726" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1726" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1726" t="n">
-        <v>1725</v>
-      </c>
-      <c r="E1726" t="s">
-        <v>3074</v>
-      </c>
-      <c r="F1726" t="s">
-        <v>3075</v>
-      </c>
-      <c r="G1726" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1726" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1726" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1727" spans="1:9">
-      <c r="A1727" s="1" t="n">
-        <v>1725</v>
-      </c>
-      <c r="B1727" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1727" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1727" t="n">
-        <v>1726</v>
-      </c>
-      <c r="E1727" t="s">
-        <v>3076</v>
-      </c>
-      <c r="F1727" t="s">
-        <v>3077</v>
-      </c>
-      <c r="G1727" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1727" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1727" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1728" spans="1:9">
-      <c r="A1728" s="1" t="n">
-        <v>1726</v>
-      </c>
-      <c r="B1728" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1728" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1728" t="n">
-        <v>1727</v>
-      </c>
-      <c r="E1728" t="s">
-        <v>3078</v>
-      </c>
-      <c r="F1728" t="s">
-        <v>3079</v>
-      </c>
-      <c r="G1728" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1728" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1728" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1729" spans="1:9">
-      <c r="A1729" s="1" t="n">
-        <v>1727</v>
-      </c>
-      <c r="B1729" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1729" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1729" t="n">
-        <v>1728</v>
-      </c>
-      <c r="E1729" t="s">
-        <v>3080</v>
-      </c>
-      <c r="F1729" t="s">
-        <v>3081</v>
-      </c>
-      <c r="G1729" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1729" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1729" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1730" spans="1:9">
-      <c r="A1730" s="1" t="n">
-        <v>1728</v>
-      </c>
-      <c r="B1730" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1730" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1730" t="n">
-        <v>1729</v>
-      </c>
-      <c r="E1730" t="s">
-        <v>3082</v>
-      </c>
-      <c r="F1730" t="s">
-        <v>3083</v>
-      </c>
-      <c r="G1730" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1730" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1730" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1731" spans="1:9">
-      <c r="A1731" s="1" t="n">
-        <v>1729</v>
-      </c>
-      <c r="B1731" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1731" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1731" t="n">
-        <v>1730</v>
-      </c>
-      <c r="E1731" t="s">
-        <v>3084</v>
-      </c>
-      <c r="F1731" t="s">
-        <v>3085</v>
-      </c>
-      <c r="G1731" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1731" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1731" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1732" spans="1:9">
-      <c r="A1732" s="1" t="n">
-        <v>1730</v>
-      </c>
-      <c r="B1732" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1732" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1732" t="n">
-        <v>1731</v>
-      </c>
-      <c r="E1732" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F1732" t="s">
-        <v>3087</v>
-      </c>
-      <c r="G1732" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1732" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1732" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1733" spans="1:9">
-      <c r="A1733" s="1" t="n">
-        <v>1731</v>
-      </c>
-      <c r="B1733" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1733" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1733" t="n">
-        <v>1732</v>
-      </c>
-      <c r="E1733" t="s">
-        <v>3088</v>
-      </c>
-      <c r="F1733" t="s">
-        <v>3089</v>
-      </c>
-      <c r="G1733" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1733" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1733" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1734" spans="1:9">
-      <c r="A1734" s="1" t="n">
-        <v>1732</v>
-      </c>
-      <c r="B1734" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1734" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1734" t="n">
-        <v>1733</v>
-      </c>
-      <c r="E1734" t="s">
-        <v>3090</v>
-      </c>
-      <c r="F1734" t="s">
-        <v>3091</v>
-      </c>
-      <c r="G1734" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1734" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1734" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1735" spans="1:9">
-      <c r="A1735" s="1" t="n">
-        <v>1733</v>
-      </c>
-      <c r="B1735" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1735" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1735" t="n">
-        <v>1734</v>
-      </c>
-      <c r="E1735" t="s">
-        <v>3092</v>
-      </c>
-      <c r="F1735" t="s">
-        <v>3093</v>
-      </c>
-      <c r="G1735" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1735" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1735" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1736" spans="1:9">
-      <c r="A1736" s="1" t="n">
-        <v>1734</v>
-      </c>
-      <c r="B1736" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1736" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1736" t="n">
-        <v>1735</v>
-      </c>
-      <c r="E1736" t="s">
-        <v>3094</v>
-      </c>
-      <c r="F1736" t="s">
-        <v>3095</v>
-      </c>
-      <c r="G1736" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1736" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1736" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1737" spans="1:9">
-      <c r="A1737" s="1" t="n">
-        <v>1735</v>
-      </c>
-      <c r="B1737" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1737" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1737" t="n">
-        <v>1736</v>
-      </c>
-      <c r="E1737" t="s">
-        <v>3096</v>
-      </c>
-      <c r="F1737" t="s">
-        <v>3097</v>
-      </c>
-      <c r="G1737" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1737" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1737" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1738" spans="1:9">
-      <c r="A1738" s="1" t="n">
-        <v>1736</v>
-      </c>
-      <c r="B1738" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1738" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1738" t="n">
-        <v>1737</v>
-      </c>
-      <c r="E1738" t="s">
-        <v>3098</v>
-      </c>
-      <c r="F1738" t="s">
-        <v>3099</v>
-      </c>
-      <c r="G1738" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1738" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1738" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1739" spans="1:9">
-      <c r="A1739" s="1" t="n">
-        <v>1737</v>
-      </c>
-      <c r="B1739" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1739" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1739" t="n">
-        <v>1738</v>
-      </c>
-      <c r="E1739" t="s">
-        <v>3100</v>
-      </c>
-      <c r="F1739" t="s">
-        <v>3101</v>
-      </c>
-      <c r="G1739" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1739" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1739" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1740" spans="1:9">
-      <c r="A1740" s="1" t="n">
-        <v>1738</v>
-      </c>
-      <c r="B1740" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1740" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1740" t="n">
-        <v>1739</v>
-      </c>
-      <c r="E1740" t="s">
-        <v>3102</v>
-      </c>
-      <c r="F1740" t="s">
-        <v>3103</v>
-      </c>
-      <c r="G1740" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1740" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1740" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1741" spans="1:9">
-      <c r="A1741" s="1" t="n">
-        <v>1739</v>
-      </c>
-      <c r="B1741" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1741" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1741" t="n">
-        <v>1740</v>
-      </c>
-      <c r="E1741" t="s">
-        <v>3104</v>
-      </c>
-      <c r="F1741" t="s">
-        <v>3105</v>
-      </c>
-      <c r="G1741" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1741" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1741" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1742" spans="1:9">
-      <c r="A1742" s="1" t="n">
-        <v>1740</v>
-      </c>
-      <c r="B1742" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1742" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1742" t="n">
-        <v>1741</v>
-      </c>
-      <c r="E1742" t="s">
-        <v>3106</v>
-      </c>
-      <c r="F1742" t="s">
-        <v>3107</v>
-      </c>
-      <c r="G1742" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1742" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1742" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1743" spans="1:9">
-      <c r="A1743" s="1" t="n">
-        <v>1741</v>
-      </c>
-      <c r="B1743" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1743" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1743" t="n">
-        <v>1742</v>
-      </c>
-      <c r="E1743" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F1743" t="s">
-        <v>3109</v>
-      </c>
-      <c r="G1743" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1743" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1743" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1744" spans="1:9">
-      <c r="A1744" s="1" t="n">
-        <v>1742</v>
-      </c>
-      <c r="B1744" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1744" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1744" t="n">
-        <v>1743</v>
-      </c>
-      <c r="E1744" t="s">
-        <v>3110</v>
-      </c>
-      <c r="F1744" t="s">
-        <v>3111</v>
-      </c>
-      <c r="G1744" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1744" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1744" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1745" spans="1:9">
-      <c r="A1745" s="1" t="n">
-        <v>1743</v>
-      </c>
-      <c r="B1745" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1745" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1745" t="n">
-        <v>1744</v>
-      </c>
-      <c r="E1745" t="s">
-        <v>3112</v>
-      </c>
-      <c r="F1745" t="s">
-        <v>3113</v>
-      </c>
-      <c r="G1745" t="n">
-        <v>2</v>
-      </c>
-      <c r="H1745" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1745" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1746" spans="1:9">
-      <c r="A1746" s="1" t="n">
-        <v>1744</v>
-      </c>
-      <c r="B1746" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1746" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1746" t="n">
-        <v>1745</v>
-      </c>
-      <c r="E1746" t="s">
-        <v>3114</v>
-      </c>
-      <c r="F1746" t="s">
-        <v>3115</v>
-      </c>
-      <c r="G1746" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1746" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1746" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1747" spans="1:9">
-      <c r="A1747" s="1" t="n">
-        <v>1745</v>
-      </c>
-      <c r="B1747" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1747" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1747" t="n">
-        <v>1746</v>
-      </c>
-      <c r="E1747" t="s">
-        <v>3116</v>
-      </c>
-      <c r="F1747" t="s">
-        <v>3117</v>
-      </c>
-      <c r="G1747" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1747" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1747" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1748" spans="1:9">
-      <c r="A1748" s="1" t="n">
-        <v>1746</v>
-      </c>
-      <c r="B1748" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1748" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1748" t="n">
-        <v>1747</v>
-      </c>
-      <c r="E1748" t="s">
-        <v>3118</v>
-      </c>
-      <c r="F1748" t="s">
-        <v>3119</v>
-      </c>
-      <c r="G1748" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1748" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1748" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1749" spans="1:9">
-      <c r="A1749" s="1" t="n">
-        <v>1747</v>
-      </c>
-      <c r="B1749" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1749" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1749" t="n">
-        <v>1748</v>
-      </c>
-      <c r="E1749" t="s">
-        <v>3120</v>
-      </c>
-      <c r="F1749" t="s">
-        <v>3121</v>
-      </c>
-      <c r="G1749" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1749" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1749" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1750" spans="1:9">
-      <c r="A1750" s="1" t="n">
-        <v>1748</v>
-      </c>
-      <c r="B1750" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1750" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1750" t="n">
-        <v>1749</v>
-      </c>
-      <c r="E1750" t="s">
-        <v>3122</v>
-      </c>
-      <c r="F1750" t="s">
-        <v>3123</v>
-      </c>
-      <c r="G1750" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1750" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1750" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1751" spans="1:9">
-      <c r="A1751" s="1" t="n">
-        <v>1749</v>
-      </c>
-      <c r="B1751" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1751" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1751" t="n">
-        <v>1750</v>
-      </c>
-      <c r="E1751" t="s">
-        <v>3124</v>
-      </c>
-      <c r="F1751" t="s">
-        <v>3125</v>
-      </c>
-      <c r="G1751" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1751" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1751" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1752" spans="1:9">
-      <c r="A1752" s="1" t="n">
-        <v>1750</v>
-      </c>
-      <c r="B1752" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1752" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1752" t="n">
-        <v>1751</v>
-      </c>
-      <c r="E1752" t="s">
-        <v>3126</v>
-      </c>
-      <c r="F1752" t="s">
-        <v>3127</v>
-      </c>
-      <c r="G1752" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1752" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1752" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1753" spans="1:9">
-      <c r="A1753" s="1" t="n">
-        <v>1751</v>
-      </c>
-      <c r="B1753" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1753" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1753" t="n">
-        <v>1752</v>
-      </c>
-      <c r="E1753" t="s">
-        <v>3128</v>
-      </c>
-      <c r="F1753" t="s">
-        <v>3129</v>
-      </c>
-      <c r="G1753" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1753" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1753" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1754" spans="1:9">
-      <c r="A1754" s="1" t="n">
-        <v>1752</v>
-      </c>
-      <c r="B1754" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1754" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1754" t="n">
-        <v>1753</v>
-      </c>
-      <c r="E1754" t="s">
-        <v>3130</v>
-      </c>
-      <c r="F1754" t="s">
-        <v>3131</v>
-      </c>
-      <c r="G1754" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1754" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1754" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1755" spans="1:9">
-      <c r="A1755" s="1" t="n">
-        <v>1753</v>
-      </c>
-      <c r="B1755" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1755" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1755" t="n">
-        <v>1754</v>
-      </c>
-      <c r="E1755" t="s">
-        <v>3132</v>
-      </c>
-      <c r="F1755" t="s">
-        <v>3133</v>
-      </c>
-      <c r="G1755" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1755" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1755" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1756" spans="1:9">
-      <c r="A1756" s="1" t="n">
-        <v>1754</v>
-      </c>
-      <c r="B1756" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1756" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1756" t="n">
-        <v>1755</v>
-      </c>
-      <c r="E1756" t="s">
-        <v>3134</v>
-      </c>
-      <c r="F1756" t="s">
-        <v>3135</v>
-      </c>
-      <c r="G1756" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1756" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1756" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1757" spans="1:9">
-      <c r="A1757" s="1" t="n">
-        <v>1755</v>
-      </c>
-      <c r="B1757" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1757" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1757" t="n">
-        <v>1756</v>
-      </c>
-      <c r="E1757" t="s">
-        <v>3136</v>
-      </c>
-      <c r="F1757" t="s">
-        <v>3137</v>
-      </c>
-      <c r="G1757" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1757" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1757" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1758" spans="1:9">
-      <c r="A1758" s="1" t="n">
-        <v>1756</v>
-      </c>
-      <c r="B1758" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1758" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1758" t="n">
-        <v>1757</v>
-      </c>
-      <c r="E1758" t="s">
-        <v>3138</v>
-      </c>
-      <c r="F1758" t="s">
-        <v>3139</v>
-      </c>
-      <c r="G1758" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1758" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1758" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1759" spans="1:9">
-      <c r="A1759" s="1" t="n">
-        <v>1757</v>
-      </c>
-      <c r="B1759" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1759" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1759" t="n">
-        <v>1758</v>
-      </c>
-      <c r="E1759" t="s">
-        <v>3140</v>
-      </c>
-      <c r="F1759" t="s">
-        <v>3141</v>
-      </c>
-      <c r="G1759" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1759" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1759" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1760" spans="1:9">
-      <c r="A1760" s="1" t="n">
-        <v>1758</v>
-      </c>
-      <c r="B1760" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1760" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1760" t="n">
-        <v>1759</v>
-      </c>
-      <c r="E1760" t="s">
-        <v>3142</v>
-      </c>
-      <c r="F1760" t="s">
-        <v>3143</v>
-      </c>
-      <c r="G1760" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1760" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1760" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1761" spans="1:9">
-      <c r="A1761" s="1" t="n">
-        <v>1759</v>
-      </c>
-      <c r="B1761" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1761" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1761" t="n">
-        <v>1760</v>
-      </c>
-      <c r="E1761" t="s">
-        <v>3144</v>
-      </c>
-      <c r="F1761" t="s">
-        <v>3145</v>
-      </c>
-      <c r="G1761" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1761" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1761" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1762" spans="1:9">
-      <c r="A1762" s="1" t="n">
-        <v>1760</v>
-      </c>
-      <c r="B1762" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1762" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1762" t="n">
-        <v>1761</v>
-      </c>
-      <c r="E1762" t="s">
-        <v>3146</v>
-      </c>
-      <c r="F1762" t="s">
-        <v>3147</v>
-      </c>
-      <c r="G1762" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1762" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1762" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1763" spans="1:9">
-      <c r="A1763" s="1" t="n">
-        <v>1761</v>
-      </c>
-      <c r="B1763" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1763" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1763" t="n">
-        <v>1762</v>
-      </c>
-      <c r="E1763" t="s">
-        <v>3148</v>
-      </c>
-      <c r="F1763" t="s">
-        <v>3149</v>
-      </c>
-      <c r="G1763" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1763" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1763" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1764" spans="1:9">
-      <c r="A1764" s="1" t="n">
-        <v>1762</v>
-      </c>
-      <c r="B1764" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1764" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1764" t="n">
-        <v>1763</v>
-      </c>
-      <c r="E1764" t="s">
-        <v>3150</v>
-      </c>
-      <c r="F1764" t="s">
-        <v>3151</v>
-      </c>
-      <c r="G1764" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1764" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1764" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1765" spans="1:9">
-      <c r="A1765" s="1" t="n">
-        <v>1763</v>
-      </c>
-      <c r="B1765" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1765" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1765" t="n">
-        <v>1764</v>
-      </c>
-      <c r="E1765" t="s">
-        <v>3152</v>
-      </c>
-      <c r="F1765" t="s">
-        <v>3153</v>
-      </c>
-      <c r="G1765" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1765" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1765" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1766" spans="1:9">
-      <c r="A1766" s="1" t="n">
-        <v>1764</v>
-      </c>
-      <c r="B1766" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1766" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1766" t="n">
-        <v>1765</v>
-      </c>
-      <c r="E1766" t="s">
-        <v>3154</v>
-      </c>
-      <c r="F1766" t="s">
-        <v>3155</v>
-      </c>
-      <c r="G1766" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1766" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1766" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1767" spans="1:9">
-      <c r="A1767" s="1" t="n">
-        <v>1765</v>
-      </c>
-      <c r="B1767" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1767" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1767" t="n">
-        <v>1766</v>
-      </c>
-      <c r="E1767" t="s">
-        <v>3156</v>
-      </c>
-      <c r="F1767" t="s">
-        <v>3157</v>
-      </c>
-      <c r="G1767" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1767" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1767" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1768" spans="1:9">
-      <c r="A1768" s="1" t="n">
-        <v>1766</v>
-      </c>
-      <c r="B1768" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1768" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1768" t="n">
-        <v>1767</v>
-      </c>
-      <c r="E1768" t="s">
-        <v>3158</v>
-      </c>
-      <c r="F1768" t="s">
-        <v>3159</v>
-      </c>
-      <c r="G1768" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1768" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1768" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1769" spans="1:9">
-      <c r="A1769" s="1" t="n">
-        <v>1767</v>
-      </c>
-      <c r="B1769" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1769" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1769" t="n">
-        <v>1768</v>
-      </c>
-      <c r="E1769" t="s">
-        <v>3160</v>
-      </c>
-      <c r="F1769" t="s">
-        <v>3161</v>
-      </c>
-      <c r="G1769" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1769" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1769" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1770" spans="1:9">
-      <c r="A1770" s="1" t="n">
-        <v>1768</v>
-      </c>
-      <c r="B1770" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1770" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1770" t="n">
-        <v>1769</v>
-      </c>
-      <c r="E1770" t="s">
-        <v>3162</v>
-      </c>
-      <c r="F1770" t="s">
-        <v>3163</v>
-      </c>
-      <c r="G1770" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1770" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1770" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1771" spans="1:9">
-      <c r="A1771" s="1" t="n">
-        <v>1769</v>
-      </c>
-      <c r="B1771" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1771" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1771" t="n">
-        <v>1770</v>
-      </c>
-      <c r="E1771" t="s">
-        <v>3164</v>
-      </c>
-      <c r="F1771" t="s">
-        <v>3165</v>
-      </c>
-      <c r="G1771" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1771" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1771" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1772" spans="1:9">
-      <c r="A1772" s="1" t="n">
-        <v>1770</v>
-      </c>
-      <c r="B1772" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1772" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1772" t="n">
-        <v>1771</v>
-      </c>
-      <c r="E1772" t="s">
-        <v>3166</v>
-      </c>
-      <c r="F1772" t="s">
-        <v>3167</v>
-      </c>
-      <c r="G1772" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1772" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1772" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1773" spans="1:9">
-      <c r="A1773" s="1" t="n">
-        <v>1771</v>
-      </c>
-      <c r="B1773" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1773" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1773" t="n">
-        <v>1772</v>
-      </c>
-      <c r="E1773" t="s">
-        <v>3168</v>
-      </c>
-      <c r="F1773" t="s">
-        <v>3169</v>
-      </c>
-      <c r="G1773" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1773" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1773" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1774" spans="1:9">
-      <c r="A1774" s="1" t="n">
-        <v>1772</v>
-      </c>
-      <c r="B1774" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1774" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1774" t="n">
-        <v>1773</v>
-      </c>
-      <c r="E1774" t="s">
-        <v>3170</v>
-      </c>
-      <c r="F1774" t="s">
-        <v>3171</v>
-      </c>
-      <c r="G1774" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1774" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1774" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1775" spans="1:9">
-      <c r="A1775" s="1" t="n">
-        <v>1773</v>
-      </c>
-      <c r="B1775" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1775" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1775" t="n">
-        <v>1774</v>
-      </c>
-      <c r="E1775" t="s">
-        <v>3172</v>
-      </c>
-      <c r="F1775" t="s">
-        <v>3173</v>
-      </c>
-      <c r="G1775" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1775" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1775" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1776" spans="1:9">
-      <c r="A1776" s="1" t="n">
-        <v>1774</v>
-      </c>
-      <c r="B1776" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1776" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1776" t="n">
-        <v>1775</v>
-      </c>
-      <c r="E1776" t="s">
-        <v>3174</v>
-      </c>
-      <c r="F1776" t="s">
-        <v>3175</v>
-      </c>
-      <c r="G1776" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1776" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1776" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1777" spans="1:9">
-      <c r="A1777" s="1" t="n">
-        <v>1775</v>
-      </c>
-      <c r="B1777" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1777" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1777" t="n">
-        <v>1776</v>
-      </c>
-      <c r="E1777" t="s">
-        <v>3176</v>
-      </c>
-      <c r="F1777" t="s">
-        <v>3177</v>
-      </c>
-      <c r="G1777" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1777" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1777" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1778" spans="1:9">
-      <c r="A1778" s="1" t="n">
-        <v>1776</v>
-      </c>
-      <c r="B1778" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1778" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1778" t="n">
-        <v>1777</v>
-      </c>
-      <c r="E1778" t="s">
-        <v>3178</v>
-      </c>
-      <c r="F1778" t="s">
-        <v>3179</v>
-      </c>
-      <c r="G1778" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1778" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1778" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1779" spans="1:9">
-      <c r="A1779" s="1" t="n">
-        <v>1777</v>
-      </c>
-      <c r="B1779" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1779" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1779" t="n">
-        <v>1778</v>
-      </c>
-      <c r="E1779" t="s">
-        <v>3180</v>
-      </c>
-      <c r="F1779" t="s">
-        <v>3181</v>
-      </c>
-      <c r="G1779" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1779" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1779" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1780" spans="1:9">
-      <c r="A1780" s="1" t="n">
-        <v>1778</v>
-      </c>
-      <c r="B1780" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1780" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1780" t="n">
-        <v>1779</v>
-      </c>
-      <c r="E1780" t="s">
-        <v>3182</v>
-      </c>
-      <c r="F1780" t="s">
-        <v>3183</v>
-      </c>
-      <c r="G1780" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1780" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1780" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1781" spans="1:9">
-      <c r="A1781" s="1" t="n">
-        <v>1779</v>
-      </c>
-      <c r="B1781" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1781" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1781" t="n">
-        <v>1780</v>
-      </c>
-      <c r="E1781" t="s">
-        <v>3184</v>
-      </c>
-      <c r="F1781" t="s">
-        <v>3185</v>
-      </c>
-      <c r="G1781" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1781" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1781" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1782" spans="1:9">
-      <c r="A1782" s="1" t="n">
-        <v>1780</v>
-      </c>
-      <c r="B1782" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1782" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1782" t="n">
-        <v>1781</v>
-      </c>
-      <c r="E1782" t="s">
-        <v>3186</v>
-      </c>
-      <c r="F1782" t="s">
-        <v>3187</v>
-      </c>
-      <c r="G1782" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1782" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1782" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1783" spans="1:9">
-      <c r="A1783" s="1" t="n">
-        <v>1781</v>
-      </c>
-      <c r="B1783" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1783" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1783" t="n">
-        <v>1782</v>
-      </c>
-      <c r="E1783" t="s">
-        <v>3188</v>
-      </c>
-      <c r="F1783" t="s">
-        <v>3189</v>
-      </c>
-      <c r="G1783" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1783" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1783" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1784" spans="1:9">
-      <c r="A1784" s="1" t="n">
-        <v>1782</v>
-      </c>
-      <c r="B1784" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1784" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1784" t="n">
-        <v>1783</v>
-      </c>
-      <c r="E1784" t="s">
-        <v>3190</v>
-      </c>
-      <c r="F1784" t="s">
-        <v>3191</v>
-      </c>
-      <c r="G1784" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1784" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1784" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1785" spans="1:9">
-      <c r="A1785" s="1" t="n">
-        <v>1783</v>
-      </c>
-      <c r="B1785" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1785" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1785" t="n">
-        <v>1784</v>
-      </c>
-      <c r="E1785" t="s">
-        <v>3192</v>
-      </c>
-      <c r="F1785" t="s">
-        <v>3193</v>
-      </c>
-      <c r="G1785" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1785" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1785" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1786" spans="1:9">
-      <c r="A1786" s="1" t="n">
-        <v>1784</v>
-      </c>
-      <c r="B1786" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1786" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1786" t="n">
-        <v>1785</v>
-      </c>
-      <c r="E1786" t="s">
-        <v>3194</v>
-      </c>
-      <c r="F1786" t="s">
-        <v>3195</v>
-      </c>
-      <c r="G1786" t="n">
-        <v>4</v>
-      </c>
-      <c r="H1786" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1786" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1787" spans="1:9">
-      <c r="A1787" s="1" t="n">
-        <v>1785</v>
-      </c>
-      <c r="B1787" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1787" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1787" t="n">
-        <v>1786</v>
-      </c>
-      <c r="E1787" t="s">
-        <v>3196</v>
-      </c>
-      <c r="F1787" t="s">
-        <v>3197</v>
-      </c>
-      <c r="G1787" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1787" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1787" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1788" spans="1:9">
-      <c r="A1788" s="1" t="n">
-        <v>1786</v>
-      </c>
-      <c r="B1788" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1788" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1788" t="n">
-        <v>1787</v>
-      </c>
-      <c r="E1788" t="s">
-        <v>3198</v>
-      </c>
-      <c r="F1788" t="s">
-        <v>3199</v>
-      </c>
-      <c r="G1788" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1788" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1788" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1789" spans="1:9">
-      <c r="A1789" s="1" t="n">
-        <v>1787</v>
-      </c>
-      <c r="B1789" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1789" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1789" t="n">
-        <v>1788</v>
-      </c>
-      <c r="E1789" t="s">
-        <v>3200</v>
-      </c>
-      <c r="F1789" t="s">
-        <v>3201</v>
-      </c>
-      <c r="G1789" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1789" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1789" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1790" spans="1:9">
-      <c r="A1790" s="1" t="n">
-        <v>1788</v>
-      </c>
-      <c r="B1790" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1790" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1790" t="n">
-        <v>1789</v>
-      </c>
-      <c r="E1790" t="s">
-        <v>3202</v>
-      </c>
-      <c r="F1790" t="s">
-        <v>3203</v>
-      </c>
-      <c r="G1790" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1790" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1790" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1791" spans="1:9">
-      <c r="A1791" s="1" t="n">
-        <v>1789</v>
-      </c>
-      <c r="B1791" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1791" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1791" t="n">
-        <v>1790</v>
-      </c>
-      <c r="E1791" t="s">
-        <v>3204</v>
-      </c>
-      <c r="F1791" t="s">
-        <v>3205</v>
-      </c>
-      <c r="G1791" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1791" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1791" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1792" spans="1:9">
-      <c r="A1792" s="1" t="n">
-        <v>1790</v>
-      </c>
-      <c r="B1792" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1792" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1792" t="n">
-        <v>1791</v>
-      </c>
-      <c r="E1792" t="s">
-        <v>3206</v>
-      </c>
-      <c r="F1792" t="s">
-        <v>3207</v>
-      </c>
-      <c r="G1792" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1792" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1792" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1793" spans="1:9">
-      <c r="A1793" s="1" t="n">
-        <v>1791</v>
-      </c>
-      <c r="B1793" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1793" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1793" t="n">
-        <v>1792</v>
-      </c>
-      <c r="E1793" t="s">
-        <v>3208</v>
-      </c>
-      <c r="F1793" t="s">
-        <v>3209</v>
-      </c>
-      <c r="G1793" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1793" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1793" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1794" spans="1:9">
-      <c r="A1794" s="1" t="n">
-        <v>1792</v>
-      </c>
-      <c r="B1794" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1794" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1794" t="n">
-        <v>1793</v>
-      </c>
-      <c r="E1794" t="s">
-        <v>3210</v>
-      </c>
-      <c r="F1794" t="s">
-        <v>3211</v>
-      </c>
-      <c r="G1794" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1794" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1794" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1795" spans="1:9">
-      <c r="A1795" s="1" t="n">
-        <v>1793</v>
-      </c>
-      <c r="B1795" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1795" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1795" t="n">
-        <v>1794</v>
-      </c>
-      <c r="E1795" t="s">
-        <v>3212</v>
-      </c>
-      <c r="F1795" t="s">
-        <v>3213</v>
-      </c>
-      <c r="G1795" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1795" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1795" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1796" spans="1:9">
-      <c r="A1796" s="1" t="n">
-        <v>1794</v>
-      </c>
-      <c r="B1796" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1796" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1796" t="n">
-        <v>1795</v>
-      </c>
-      <c r="E1796" t="s">
-        <v>3214</v>
-      </c>
-      <c r="F1796" t="s">
-        <v>3215</v>
-      </c>
-      <c r="G1796" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1796" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1796" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1797" spans="1:9">
-      <c r="A1797" s="1" t="n">
-        <v>1795</v>
-      </c>
-      <c r="B1797" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1797" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1797" t="n">
-        <v>1796</v>
-      </c>
-      <c r="E1797" t="s">
-        <v>3216</v>
-      </c>
-      <c r="F1797" t="s">
-        <v>3217</v>
-      </c>
-      <c r="G1797" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1797" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1797" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1798" spans="1:9">
-      <c r="A1798" s="1" t="n">
-        <v>1796</v>
-      </c>
-      <c r="B1798" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1798" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1798" t="n">
-        <v>1797</v>
-      </c>
-      <c r="E1798" t="s">
-        <v>3218</v>
-      </c>
-      <c r="F1798" t="s">
-        <v>3219</v>
-      </c>
-      <c r="G1798" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1798" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1798" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1799" spans="1:9">
-      <c r="A1799" s="1" t="n">
-        <v>1797</v>
-      </c>
-      <c r="B1799" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1799" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1799" t="n">
-        <v>1798</v>
-      </c>
-      <c r="E1799" t="s">
-        <v>3220</v>
-      </c>
-      <c r="F1799" t="s">
-        <v>3221</v>
-      </c>
-      <c r="G1799" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1799" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1799" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1800" spans="1:9">
-      <c r="A1800" s="1" t="n">
-        <v>1798</v>
-      </c>
-      <c r="B1800" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1800" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1800" t="n">
-        <v>1799</v>
-      </c>
-      <c r="E1800" t="s">
-        <v>3222</v>
-      </c>
-      <c r="F1800" t="s">
-        <v>3223</v>
-      </c>
-      <c r="G1800" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1800" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1800" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1801" spans="1:9">
-      <c r="A1801" s="1" t="n">
-        <v>1799</v>
-      </c>
-      <c r="B1801" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1801" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1801" t="n">
-        <v>1800</v>
-      </c>
-      <c r="E1801" t="s">
-        <v>3224</v>
-      </c>
-      <c r="F1801" t="s">
-        <v>3225</v>
-      </c>
-      <c r="G1801" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1801" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1801" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1802" spans="1:9">
-      <c r="A1802" s="1" t="n">
-        <v>1800</v>
-      </c>
-      <c r="B1802" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1802" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1802" t="n">
-        <v>1801</v>
-      </c>
-      <c r="E1802" t="s">
-        <v>3226</v>
-      </c>
-      <c r="F1802" t="s">
-        <v>3227</v>
-      </c>
-      <c r="G1802" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1802" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1802" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1803" spans="1:9">
-      <c r="A1803" s="1" t="n">
-        <v>1801</v>
-      </c>
-      <c r="B1803" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1803" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1803" t="n">
-        <v>1802</v>
-      </c>
-      <c r="E1803" t="s">
-        <v>3228</v>
-      </c>
-      <c r="F1803" t="s">
-        <v>3229</v>
-      </c>
-      <c r="G1803" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1803" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1803" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1804" spans="1:9">
-      <c r="A1804" s="1" t="n">
-        <v>1802</v>
-      </c>
-      <c r="B1804" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1804" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1804" t="n">
-        <v>1803</v>
-      </c>
-      <c r="E1804" t="s">
-        <v>3230</v>
-      </c>
-      <c r="F1804" t="s">
-        <v>3231</v>
-      </c>
-      <c r="G1804" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1804" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1804" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1805" spans="1:9">
-      <c r="A1805" s="1" t="n">
-        <v>1803</v>
-      </c>
-      <c r="B1805" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1805" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1805" t="n">
-        <v>1804</v>
-      </c>
-      <c r="E1805" t="s">
-        <v>3232</v>
-      </c>
-      <c r="F1805" t="s">
-        <v>3233</v>
-      </c>
-      <c r="G1805" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1805" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1805" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1806" spans="1:9">
-      <c r="A1806" s="1" t="n">
-        <v>1804</v>
-      </c>
-      <c r="B1806" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1806" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1806" t="n">
-        <v>1805</v>
-      </c>
-      <c r="E1806" t="s">
-        <v>3234</v>
-      </c>
-      <c r="F1806" t="s">
-        <v>3235</v>
-      </c>
-      <c r="G1806" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1806" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1806" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1807" spans="1:9">
-      <c r="A1807" s="1" t="n">
-        <v>1805</v>
-      </c>
-      <c r="B1807" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1807" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1807" t="n">
-        <v>1806</v>
-      </c>
-      <c r="E1807" t="s">
-        <v>3236</v>
-      </c>
-      <c r="F1807" t="s">
-        <v>3237</v>
-      </c>
-      <c r="G1807" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1807" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1807" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1808" spans="1:9">
-      <c r="A1808" s="1" t="n">
-        <v>1806</v>
-      </c>
-      <c r="B1808" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1808" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1808" t="n">
-        <v>1807</v>
-      </c>
-      <c r="E1808" t="s">
-        <v>3238</v>
-      </c>
-      <c r="F1808" t="s">
-        <v>3239</v>
-      </c>
-      <c r="G1808" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1808" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1808" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1809" spans="1:9">
-      <c r="A1809" s="1" t="n">
-        <v>1807</v>
-      </c>
-      <c r="B1809" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1809" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1809" t="n">
-        <v>1808</v>
-      </c>
-      <c r="E1809" t="s">
-        <v>3240</v>
-      </c>
-      <c r="F1809" t="s">
-        <v>3241</v>
-      </c>
-      <c r="G1809" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1809" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1809" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1810" spans="1:9">
-      <c r="A1810" s="1" t="n">
-        <v>1808</v>
-      </c>
-      <c r="B1810" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1810" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1810" t="n">
-        <v>1809</v>
-      </c>
-      <c r="E1810" t="s">
-        <v>3242</v>
-      </c>
-      <c r="F1810" t="s">
-        <v>3243</v>
-      </c>
-      <c r="G1810" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1810" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1810" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1811" spans="1:9">
-      <c r="A1811" s="1" t="n">
-        <v>1809</v>
-      </c>
-      <c r="B1811" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1811" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1811" t="n">
-        <v>1810</v>
-      </c>
-      <c r="E1811" t="s">
-        <v>3244</v>
-      </c>
-      <c r="F1811" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G1811" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1811" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1811" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1812" spans="1:9">
-      <c r="A1812" s="1" t="n">
-        <v>1810</v>
-      </c>
-      <c r="B1812" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1812" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1812" t="n">
-        <v>1811</v>
-      </c>
-      <c r="E1812" t="s">
-        <v>3246</v>
-      </c>
-      <c r="F1812" t="s">
-        <v>3247</v>
-      </c>
-      <c r="G1812" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1812" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1812" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1813" spans="1:9">
-      <c r="A1813" s="1" t="n">
-        <v>1811</v>
-      </c>
-      <c r="B1813" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1813" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1813" t="n">
-        <v>1812</v>
-      </c>
-      <c r="E1813" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F1813" t="s">
-        <v>3249</v>
-      </c>
-      <c r="G1813" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1813" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1813" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1814" spans="1:9">
-      <c r="A1814" s="1" t="n">
-        <v>1812</v>
-      </c>
-      <c r="B1814" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1814" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1814" t="n">
-        <v>1813</v>
-      </c>
-      <c r="E1814" t="s">
-        <v>3250</v>
-      </c>
-      <c r="F1814" t="s">
-        <v>3251</v>
-      </c>
-      <c r="G1814" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1814" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1814" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1815" spans="1:9">
-      <c r="A1815" s="1" t="n">
-        <v>1813</v>
-      </c>
-      <c r="B1815" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1815" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1815" t="n">
-        <v>1814</v>
-      </c>
-      <c r="E1815" t="s">
-        <v>3252</v>
-      </c>
-      <c r="F1815" t="s">
-        <v>3253</v>
-      </c>
-      <c r="G1815" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1815" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1815" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1816" spans="1:9">
-      <c r="A1816" s="1" t="n">
-        <v>1814</v>
-      </c>
-      <c r="B1816" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1816" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1816" t="n">
-        <v>1815</v>
-      </c>
-      <c r="E1816" t="s">
-        <v>3254</v>
-      </c>
-      <c r="F1816" t="s">
-        <v>3255</v>
-      </c>
-      <c r="G1816" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1816" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1816" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1817" spans="1:9">
-      <c r="A1817" s="1" t="n">
-        <v>1815</v>
-      </c>
-      <c r="B1817" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1817" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1817" t="n">
-        <v>1816</v>
-      </c>
-      <c r="E1817" t="s">
-        <v>3256</v>
-      </c>
-      <c r="F1817" t="s">
-        <v>3257</v>
-      </c>
-      <c r="G1817" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1817" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1817" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1818" spans="1:9">
-      <c r="A1818" s="1" t="n">
-        <v>1816</v>
-      </c>
-      <c r="B1818" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1818" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1818" t="n">
-        <v>1817</v>
-      </c>
-      <c r="E1818" t="s">
-        <v>3258</v>
-      </c>
-      <c r="F1818" t="s">
-        <v>3259</v>
-      </c>
-      <c r="G1818" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1818" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1818" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1819" spans="1:9">
-      <c r="A1819" s="1" t="n">
-        <v>1817</v>
-      </c>
-      <c r="B1819" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1819" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1819" t="n">
-        <v>1818</v>
-      </c>
-      <c r="E1819" t="s">
-        <v>3260</v>
-      </c>
-      <c r="F1819" t="s">
-        <v>3261</v>
-      </c>
-      <c r="G1819" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1819" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1819" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1820" spans="1:9">
-      <c r="A1820" s="1" t="n">
-        <v>1818</v>
-      </c>
-      <c r="B1820" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1820" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1820" t="n">
-        <v>1819</v>
-      </c>
-      <c r="E1820" t="s">
-        <v>3262</v>
-      </c>
-      <c r="F1820" t="s">
-        <v>3263</v>
-      </c>
-      <c r="G1820" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1820" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1820" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1821" spans="1:9">
-      <c r="A1821" s="1" t="n">
-        <v>1819</v>
-      </c>
-      <c r="B1821" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1821" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1821" t="n">
-        <v>1820</v>
-      </c>
-      <c r="E1821" t="s">
-        <v>3264</v>
-      </c>
-      <c r="F1821" t="s">
-        <v>3265</v>
-      </c>
-      <c r="G1821" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1821" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1821" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1822" spans="1:9">
-      <c r="A1822" s="1" t="n">
-        <v>1820</v>
-      </c>
-      <c r="B1822" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1822" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1822" t="n">
-        <v>1821</v>
-      </c>
-      <c r="E1822" t="s">
-        <v>3266</v>
-      </c>
-      <c r="F1822" t="s">
-        <v>3267</v>
-      </c>
-      <c r="G1822" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1822" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1822" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1823" spans="1:9">
-      <c r="A1823" s="1" t="n">
-        <v>1821</v>
-      </c>
-      <c r="B1823" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1823" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1823" t="n">
-        <v>1822</v>
-      </c>
-      <c r="E1823" t="s">
-        <v>3268</v>
-      </c>
-      <c r="F1823" t="s">
-        <v>3269</v>
-      </c>
-      <c r="G1823" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1823" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1823" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1824" spans="1:9">
-      <c r="A1824" s="1" t="n">
-        <v>1822</v>
-      </c>
-      <c r="B1824" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1824" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1824" t="n">
-        <v>1823</v>
-      </c>
-      <c r="E1824" t="s">
-        <v>3270</v>
-      </c>
-      <c r="F1824" t="s">
-        <v>3271</v>
-      </c>
-      <c r="G1824" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1824" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1824" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1825" spans="1:9">
-      <c r="A1825" s="1" t="n">
-        <v>1823</v>
-      </c>
-      <c r="B1825" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1825" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1825" t="n">
-        <v>1824</v>
-      </c>
-      <c r="E1825" t="s">
-        <v>3272</v>
-      </c>
-      <c r="F1825" t="s">
-        <v>3273</v>
-      </c>
-      <c r="G1825" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1825" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1825" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1826" spans="1:9">
-      <c r="A1826" s="1" t="n">
-        <v>1824</v>
-      </c>
-      <c r="B1826" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1826" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1826" t="n">
-        <v>1825</v>
-      </c>
-      <c r="E1826" t="s">
-        <v>3274</v>
-      </c>
-      <c r="F1826" t="s">
-        <v>3275</v>
-      </c>
-      <c r="G1826" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1826" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1826" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1827" spans="1:9">
-      <c r="A1827" s="1" t="n">
-        <v>1825</v>
-      </c>
-      <c r="B1827" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1827" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1827" t="n">
-        <v>1826</v>
-      </c>
-      <c r="E1827" t="s">
-        <v>3276</v>
-      </c>
-      <c r="F1827" t="s">
-        <v>3277</v>
-      </c>
-      <c r="G1827" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1827" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1827" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1828" spans="1:9">
-      <c r="A1828" s="1" t="n">
-        <v>1826</v>
-      </c>
-      <c r="B1828" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1828" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1828" t="n">
-        <v>1827</v>
-      </c>
-      <c r="E1828" t="s">
-        <v>3278</v>
-      </c>
-      <c r="F1828" t="s">
-        <v>3279</v>
-      </c>
-      <c r="G1828" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1828" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1828" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1829" spans="1:9">
-      <c r="A1829" s="1" t="n">
-        <v>1827</v>
-      </c>
-      <c r="B1829" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1829" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1829" t="n">
-        <v>1828</v>
-      </c>
-      <c r="E1829" t="s">
-        <v>3280</v>
-      </c>
-      <c r="F1829" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G1829" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1829" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1829" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1830" spans="1:9">
-      <c r="A1830" s="1" t="n">
-        <v>1828</v>
-      </c>
-      <c r="B1830" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1830" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1830" t="n">
-        <v>1829</v>
-      </c>
-      <c r="E1830" t="s">
-        <v>3282</v>
-      </c>
-      <c r="F1830" t="s">
-        <v>3283</v>
-      </c>
-      <c r="G1830" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1830" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1830" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1831" spans="1:9">
-      <c r="A1831" s="1" t="n">
-        <v>1829</v>
-      </c>
-      <c r="B1831" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1831" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1831" t="n">
-        <v>1830</v>
-      </c>
-      <c r="E1831" t="s">
-        <v>3284</v>
-      </c>
-      <c r="F1831" t="s">
-        <v>3285</v>
-      </c>
-      <c r="G1831" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1831" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1831" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1832" spans="1:9">
-      <c r="A1832" s="1" t="n">
-        <v>1830</v>
-      </c>
-      <c r="B1832" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1832" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1832" t="n">
-        <v>1831</v>
-      </c>
-      <c r="E1832" t="s">
-        <v>3286</v>
-      </c>
-      <c r="F1832" t="s">
-        <v>3287</v>
-      </c>
-      <c r="G1832" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1832" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1832" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1833" spans="1:9">
-      <c r="A1833" s="1" t="n">
-        <v>1831</v>
-      </c>
-      <c r="B1833" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1833" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1833" t="n">
-        <v>1832</v>
-      </c>
-      <c r="E1833" t="s">
-        <v>3288</v>
-      </c>
-      <c r="F1833" t="s">
-        <v>3289</v>
-      </c>
-      <c r="G1833" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1833" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1833" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1834" spans="1:9">
-      <c r="A1834" s="1" t="n">
-        <v>1832</v>
-      </c>
-      <c r="B1834" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1834" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1834" t="n">
-        <v>1833</v>
-      </c>
-      <c r="E1834" t="s">
-        <v>3290</v>
-      </c>
-      <c r="F1834" t="s">
-        <v>3291</v>
-      </c>
-      <c r="G1834" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1834" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1834" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1835" spans="1:9">
-      <c r="A1835" s="1" t="n">
-        <v>1833</v>
-      </c>
-      <c r="B1835" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1835" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1835" t="n">
-        <v>1834</v>
-      </c>
-      <c r="E1835" t="s">
-        <v>3292</v>
-      </c>
-      <c r="F1835" t="s">
-        <v>3293</v>
-      </c>
-      <c r="G1835" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1835" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1835" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1836" spans="1:9">
-      <c r="A1836" s="1" t="n">
-        <v>1834</v>
-      </c>
-      <c r="B1836" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1836" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1836" t="n">
-        <v>1835</v>
-      </c>
-      <c r="E1836" t="s">
-        <v>3294</v>
-      </c>
-      <c r="F1836" t="s">
-        <v>3295</v>
-      </c>
-      <c r="G1836" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1836" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1836" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1837" spans="1:9">
-      <c r="A1837" s="1" t="n">
-        <v>1835</v>
-      </c>
-      <c r="B1837" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1837" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1837" t="n">
-        <v>1836</v>
-      </c>
-      <c r="E1837" t="s">
-        <v>3296</v>
-      </c>
-      <c r="F1837" t="s">
-        <v>3297</v>
-      </c>
-      <c r="G1837" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1837" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1837" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1838" spans="1:9">
-      <c r="A1838" s="1" t="n">
-        <v>1836</v>
-      </c>
-      <c r="B1838" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1838" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1838" t="n">
-        <v>1837</v>
-      </c>
-      <c r="E1838" t="s">
-        <v>3298</v>
-      </c>
-      <c r="F1838" t="s">
-        <v>3299</v>
-      </c>
-      <c r="G1838" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1838" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1838" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1839" spans="1:9">
-      <c r="A1839" s="1" t="n">
-        <v>1837</v>
-      </c>
-      <c r="B1839" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1839" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1839" t="n">
-        <v>1838</v>
-      </c>
-      <c r="E1839" t="s">
-        <v>3300</v>
-      </c>
-      <c r="F1839" t="s">
-        <v>3301</v>
-      </c>
-      <c r="G1839" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1839" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1839" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1840" spans="1:9">
-      <c r="A1840" s="1" t="n">
-        <v>1838</v>
-      </c>
-      <c r="B1840" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1840" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1840" t="n">
-        <v>1839</v>
-      </c>
-      <c r="E1840" t="s">
-        <v>3302</v>
-      </c>
-      <c r="F1840" t="s">
-        <v>3303</v>
-      </c>
-      <c r="G1840" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1840" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1840" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1841" spans="1:9">
-      <c r="A1841" s="1" t="n">
-        <v>1839</v>
-      </c>
-      <c r="B1841" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1841" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1841" t="n">
-        <v>1840</v>
-      </c>
-      <c r="E1841" t="s">
-        <v>3304</v>
-      </c>
-      <c r="F1841" t="s">
-        <v>3305</v>
-      </c>
-      <c r="G1841" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1841" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1841" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1842" spans="1:9">
-      <c r="A1842" s="1" t="n">
-        <v>1840</v>
-      </c>
-      <c r="B1842" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1842" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1842" t="n">
-        <v>1841</v>
-      </c>
-      <c r="E1842" t="s">
-        <v>3306</v>
-      </c>
-      <c r="F1842" t="s">
-        <v>3307</v>
-      </c>
-      <c r="G1842" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1842" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1842" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1843" spans="1:9">
-      <c r="A1843" s="1" t="n">
-        <v>1841</v>
-      </c>
-      <c r="B1843" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1843" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1843" t="n">
-        <v>1842</v>
-      </c>
-      <c r="E1843" t="s">
-        <v>3308</v>
-      </c>
-      <c r="F1843" t="s">
-        <v>3309</v>
-      </c>
-      <c r="G1843" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1843" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1843" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1844" spans="1:9">
-      <c r="A1844" s="1" t="n">
-        <v>1842</v>
-      </c>
-      <c r="B1844" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1844" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1844" t="n">
-        <v>1843</v>
-      </c>
-      <c r="E1844" t="s">
-        <v>3310</v>
-      </c>
-      <c r="F1844" t="s">
-        <v>3311</v>
-      </c>
-      <c r="G1844" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1844" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1844" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1845" spans="1:9">
-      <c r="A1845" s="1" t="n">
-        <v>1843</v>
-      </c>
-      <c r="B1845" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1845" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1845" t="n">
-        <v>1844</v>
-      </c>
-      <c r="E1845" t="s">
-        <v>3312</v>
-      </c>
-      <c r="F1845" t="s">
-        <v>3313</v>
-      </c>
-      <c r="G1845" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1845" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1845" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1846" spans="1:9">
-      <c r="A1846" s="1" t="n">
-        <v>1844</v>
-      </c>
-      <c r="B1846" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1846" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1846" t="n">
-        <v>1845</v>
-      </c>
-      <c r="E1846" t="s">
-        <v>3314</v>
-      </c>
-      <c r="F1846" t="s">
-        <v>3315</v>
-      </c>
-      <c r="G1846" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1846" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1846" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1847" spans="1:9">
-      <c r="A1847" s="1" t="n">
-        <v>1845</v>
-      </c>
-      <c r="B1847" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1847" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1847" t="n">
-        <v>1846</v>
-      </c>
-      <c r="E1847" t="s">
-        <v>3316</v>
-      </c>
-      <c r="F1847" t="s">
-        <v>3317</v>
-      </c>
-      <c r="G1847" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1847" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1847" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1848" spans="1:9">
-      <c r="A1848" s="1" t="n">
-        <v>1846</v>
-      </c>
-      <c r="B1848" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1848" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1848" t="n">
-        <v>1847</v>
-      </c>
-      <c r="E1848" t="s">
-        <v>3318</v>
-      </c>
-      <c r="F1848" t="s">
-        <v>3319</v>
-      </c>
-      <c r="G1848" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1848" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1848" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1849" spans="1:9">
-      <c r="A1849" s="1" t="n">
-        <v>1847</v>
-      </c>
-      <c r="B1849" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1849" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1849" t="n">
-        <v>1848</v>
-      </c>
-      <c r="E1849" t="s">
-        <v>3320</v>
-      </c>
-      <c r="F1849" t="s">
-        <v>3321</v>
-      </c>
-      <c r="G1849" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1849" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1849" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1850" spans="1:9">
-      <c r="A1850" s="1" t="n">
-        <v>1848</v>
-      </c>
-      <c r="B1850" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1850" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1850" t="n">
-        <v>1849</v>
-      </c>
-      <c r="E1850" t="s">
-        <v>3322</v>
-      </c>
-      <c r="F1850" t="s">
-        <v>3323</v>
-      </c>
-      <c r="G1850" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1850" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1850" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1851" spans="1:9">
-      <c r="A1851" s="1" t="n">
-        <v>1849</v>
-      </c>
-      <c r="B1851" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1851" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1851" t="n">
-        <v>1850</v>
-      </c>
-      <c r="E1851" t="s">
-        <v>3324</v>
-      </c>
-      <c r="F1851" t="s">
-        <v>3325</v>
-      </c>
-      <c r="G1851" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1851" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1851" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1852" spans="1:9">
-      <c r="A1852" s="1" t="n">
-        <v>1850</v>
-      </c>
-      <c r="B1852" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1852" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1852" t="n">
-        <v>1851</v>
-      </c>
-      <c r="E1852" t="s">
-        <v>3326</v>
-      </c>
-      <c r="F1852" t="s">
-        <v>3327</v>
-      </c>
-      <c r="G1852" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1852" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1852" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1853" spans="1:9">
-      <c r="A1853" s="1" t="n">
-        <v>1851</v>
-      </c>
-      <c r="B1853" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1853" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1853" t="n">
-        <v>1852</v>
-      </c>
-      <c r="E1853" t="s">
-        <v>3328</v>
-      </c>
-      <c r="F1853" t="s">
-        <v>3329</v>
-      </c>
-      <c r="G1853" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1853" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1853" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1854" spans="1:9">
-      <c r="A1854" s="1" t="n">
-        <v>1852</v>
-      </c>
-      <c r="B1854" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1854" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1854" t="n">
-        <v>1853</v>
-      </c>
-      <c r="E1854" t="s">
-        <v>3330</v>
-      </c>
-      <c r="F1854" t="s">
-        <v>3331</v>
-      </c>
-      <c r="G1854" t="n">
-        <v>2</v>
-      </c>
-      <c r="H1854" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1854" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1855" spans="1:9">
-      <c r="A1855" s="1" t="n">
-        <v>1853</v>
-      </c>
-      <c r="B1855" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1855" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1855" t="n">
-        <v>1854</v>
-      </c>
-      <c r="E1855" t="s">
-        <v>3332</v>
-      </c>
-      <c r="F1855" t="s">
-        <v>3333</v>
-      </c>
-      <c r="G1855" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1855" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1855" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1856" spans="1:9">
-      <c r="A1856" s="1" t="n">
-        <v>1854</v>
-      </c>
-      <c r="B1856" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1856" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1856" t="n">
-        <v>1855</v>
-      </c>
-      <c r="E1856" t="s">
-        <v>3334</v>
-      </c>
-      <c r="F1856" t="s">
-        <v>3335</v>
-      </c>
-      <c r="G1856" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1856" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1856" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1857" spans="1:9">
-      <c r="A1857" s="1" t="n">
-        <v>1855</v>
-      </c>
-      <c r="B1857" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1857" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1857" t="n">
-        <v>1856</v>
-      </c>
-      <c r="E1857" t="s">
-        <v>3336</v>
-      </c>
-      <c r="F1857" t="s">
-        <v>3337</v>
-      </c>
-      <c r="G1857" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1857" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1857" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1858" spans="1:9">
-      <c r="A1858" s="1" t="n">
-        <v>1856</v>
-      </c>
-      <c r="B1858" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1858" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1858" t="n">
-        <v>1857</v>
-      </c>
-      <c r="E1858" t="s">
-        <v>3338</v>
-      </c>
-      <c r="F1858" t="s">
-        <v>3339</v>
-      </c>
-      <c r="G1858" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1858" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1858" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1859" spans="1:9">
-      <c r="A1859" s="1" t="n">
-        <v>1857</v>
-      </c>
-      <c r="B1859" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1859" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1859" t="n">
-        <v>1858</v>
-      </c>
-      <c r="E1859" t="s">
-        <v>3340</v>
-      </c>
-      <c r="F1859" t="s">
-        <v>3341</v>
-      </c>
-      <c r="G1859" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1859" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1859" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1860" spans="1:9">
-      <c r="A1860" s="1" t="n">
-        <v>1858</v>
-      </c>
-      <c r="B1860" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1860" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1860" t="n">
-        <v>1859</v>
-      </c>
-      <c r="E1860" t="s">
-        <v>3342</v>
-      </c>
-      <c r="F1860" t="s">
-        <v>3343</v>
-      </c>
-      <c r="G1860" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1860" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1860" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1861" spans="1:9">
-      <c r="A1861" s="1" t="n">
-        <v>1859</v>
-      </c>
-      <c r="B1861" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1861" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1861" t="n">
-        <v>1860</v>
-      </c>
-      <c r="E1861" t="s">
-        <v>3344</v>
-      </c>
-      <c r="F1861" t="s">
-        <v>3345</v>
-      </c>
-      <c r="G1861" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1861" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1861" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1862" spans="1:9">
-      <c r="A1862" s="1" t="n">
-        <v>1860</v>
-      </c>
-      <c r="B1862" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1862" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1862" t="n">
-        <v>1861</v>
-      </c>
-      <c r="E1862" t="s">
-        <v>3346</v>
-      </c>
-      <c r="F1862" t="s">
-        <v>3347</v>
-      </c>
-      <c r="G1862" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1862" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1862" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1863" spans="1:9">
-      <c r="A1863" s="1" t="n">
-        <v>1861</v>
-      </c>
-      <c r="B1863" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1863" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1863" t="n">
-        <v>1862</v>
-      </c>
-      <c r="E1863" t="s">
-        <v>3348</v>
-      </c>
-      <c r="F1863" t="s">
-        <v>3349</v>
-      </c>
-      <c r="G1863" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1863" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1863" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1864" spans="1:9">
-      <c r="A1864" s="1" t="n">
-        <v>1862</v>
-      </c>
-      <c r="B1864" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1864" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1864" t="n">
-        <v>1863</v>
-      </c>
-      <c r="E1864" t="s">
-        <v>3350</v>
-      </c>
-      <c r="F1864" t="s">
-        <v>3351</v>
-      </c>
-      <c r="G1864" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1864" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1864" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1865" spans="1:9">
-      <c r="A1865" s="1" t="n">
-        <v>1863</v>
-      </c>
-      <c r="B1865" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1865" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1865" t="n">
-        <v>1864</v>
-      </c>
-      <c r="E1865" t="s">
-        <v>3352</v>
-      </c>
-      <c r="F1865" t="s">
-        <v>3353</v>
-      </c>
-      <c r="G1865" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1865" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1865" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1866" spans="1:9">
-      <c r="A1866" s="1" t="n">
-        <v>1864</v>
-      </c>
-      <c r="B1866" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1866" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1866" t="n">
-        <v>1865</v>
-      </c>
-      <c r="E1866" t="s">
-        <v>3354</v>
-      </c>
-      <c r="F1866" t="s">
-        <v>3355</v>
-      </c>
-      <c r="G1866" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1866" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1866" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1867" spans="1:9">
-      <c r="A1867" s="1" t="n">
-        <v>1865</v>
-      </c>
-      <c r="B1867" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1867" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1867" t="n">
-        <v>1866</v>
-      </c>
-      <c r="E1867" t="s">
-        <v>3356</v>
-      </c>
-      <c r="F1867" t="s">
-        <v>3357</v>
-      </c>
-      <c r="G1867" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1867" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1867" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1868" spans="1:9">
-      <c r="A1868" s="1" t="n">
-        <v>1866</v>
-      </c>
-      <c r="B1868" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1868" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1868" t="n">
-        <v>1867</v>
-      </c>
-      <c r="E1868" t="s">
-        <v>3358</v>
-      </c>
-      <c r="F1868" t="s">
-        <v>3359</v>
-      </c>
-      <c r="G1868" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1868" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1868" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1869" spans="1:9">
-      <c r="A1869" s="1" t="n">
-        <v>1867</v>
-      </c>
-      <c r="B1869" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1869" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1869" t="n">
-        <v>1868</v>
-      </c>
-      <c r="E1869" t="s">
-        <v>3360</v>
-      </c>
-      <c r="F1869" t="s">
-        <v>3361</v>
-      </c>
-      <c r="G1869" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1869" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1869" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1870" spans="1:9">
-      <c r="A1870" s="1" t="n">
-        <v>1868</v>
-      </c>
-      <c r="B1870" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1870" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1870" t="n">
-        <v>1869</v>
-      </c>
-      <c r="E1870" t="s">
-        <v>3362</v>
-      </c>
-      <c r="F1870" t="s">
-        <v>3363</v>
-      </c>
-      <c r="G1870" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1870" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1870" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1871" spans="1:9">
-      <c r="A1871" s="1" t="n">
-        <v>1869</v>
-      </c>
-      <c r="B1871" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1871" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1871" t="n">
-        <v>1870</v>
-      </c>
-      <c r="E1871" t="s">
-        <v>3364</v>
-      </c>
-      <c r="F1871" t="s">
-        <v>3365</v>
-      </c>
-      <c r="G1871" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1871" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1871" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1872" spans="1:9">
-      <c r="A1872" s="1" t="n">
-        <v>1870</v>
-      </c>
-      <c r="B1872" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1872" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1872" t="n">
-        <v>1871</v>
-      </c>
-      <c r="E1872" t="s">
-        <v>3366</v>
-      </c>
-      <c r="F1872" t="s">
-        <v>3367</v>
-      </c>
-      <c r="G1872" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1872" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1872" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1873" spans="1:9">
-      <c r="A1873" s="1" t="n">
-        <v>1871</v>
-      </c>
-      <c r="B1873" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1873" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1873" t="n">
-        <v>1872</v>
-      </c>
-      <c r="E1873" t="s">
-        <v>3368</v>
-      </c>
-      <c r="F1873" t="s">
-        <v>3369</v>
-      </c>
-      <c r="G1873" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1873" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1873" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1874" spans="1:9">
-      <c r="A1874" s="1" t="n">
-        <v>1872</v>
-      </c>
-      <c r="B1874" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1874" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1874" t="n">
-        <v>1873</v>
-      </c>
-      <c r="E1874" t="s">
-        <v>3370</v>
-      </c>
-      <c r="F1874" t="s">
-        <v>3371</v>
-      </c>
-      <c r="G1874" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1874" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1874" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1875" spans="1:9">
-      <c r="A1875" s="1" t="n">
-        <v>1873</v>
-      </c>
-      <c r="B1875" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1875" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1875" t="n">
-        <v>1874</v>
-      </c>
-      <c r="E1875" t="s">
-        <v>3372</v>
-      </c>
-      <c r="F1875" t="s">
-        <v>3373</v>
-      </c>
-      <c r="G1875" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1875" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1875" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1876" spans="1:9">
-      <c r="A1876" s="1" t="n">
-        <v>1874</v>
-      </c>
-      <c r="B1876" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1876" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1876" t="n">
-        <v>1875</v>
-      </c>
-      <c r="E1876" t="s">
-        <v>3374</v>
-      </c>
-      <c r="F1876" t="s">
-        <v>3375</v>
-      </c>
-      <c r="G1876" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1876" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1876" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1877" spans="1:9">
-      <c r="A1877" s="1" t="n">
-        <v>1875</v>
-      </c>
-      <c r="B1877" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1877" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1877" t="n">
-        <v>1876</v>
-      </c>
-      <c r="E1877" t="s">
-        <v>3376</v>
-      </c>
-      <c r="F1877" t="s">
-        <v>3377</v>
-      </c>
-      <c r="G1877" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1877" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1877" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1878" spans="1:9">
-      <c r="A1878" s="1" t="n">
-        <v>1876</v>
-      </c>
-      <c r="B1878" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1878" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1878" t="n">
-        <v>1877</v>
-      </c>
-      <c r="E1878" t="s">
-        <v>3378</v>
-      </c>
-      <c r="F1878" t="s">
-        <v>3379</v>
-      </c>
-      <c r="G1878" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1878" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1878" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1879" spans="1:9">
-      <c r="A1879" s="1" t="n">
-        <v>1877</v>
-      </c>
-      <c r="B1879" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1879" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1879" t="n">
-        <v>1878</v>
-      </c>
-      <c r="E1879" t="s">
-        <v>3380</v>
-      </c>
-      <c r="F1879" t="s">
-        <v>3381</v>
-      </c>
-      <c r="G1879" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1879" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1879" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1880" spans="1:9">
-      <c r="A1880" s="1" t="n">
-        <v>1878</v>
-      </c>
-      <c r="B1880" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1880" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1880" t="n">
-        <v>1879</v>
-      </c>
-      <c r="E1880" t="s">
-        <v>3382</v>
-      </c>
-      <c r="F1880" t="s">
-        <v>3383</v>
-      </c>
-      <c r="G1880" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1880" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1880" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1881" spans="1:9">
-      <c r="A1881" s="1" t="n">
-        <v>1879</v>
-      </c>
-      <c r="B1881" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1881" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1881" t="n">
-        <v>1880</v>
-      </c>
-      <c r="E1881" t="s">
-        <v>3384</v>
-      </c>
-      <c r="F1881" t="s">
-        <v>3385</v>
-      </c>
-      <c r="G1881" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1881" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1881" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1882" spans="1:9">
-      <c r="A1882" s="1" t="n">
-        <v>1880</v>
-      </c>
-      <c r="B1882" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1882" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1882" t="n">
-        <v>1881</v>
-      </c>
-      <c r="E1882" t="s">
-        <v>3386</v>
-      </c>
-      <c r="F1882" t="s">
-        <v>3387</v>
-      </c>
-      <c r="G1882" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1882" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1882" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1883" spans="1:9">
-      <c r="A1883" s="1" t="n">
-        <v>1881</v>
-      </c>
-      <c r="B1883" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1883" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1883" t="n">
-        <v>1882</v>
-      </c>
-      <c r="E1883" t="s">
-        <v>3388</v>
-      </c>
-      <c r="F1883" t="s">
-        <v>3389</v>
-      </c>
-      <c r="G1883" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1883" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1883" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1884" spans="1:9">
-      <c r="A1884" s="1" t="n">
-        <v>1882</v>
-      </c>
-      <c r="B1884" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1884" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1884" t="n">
-        <v>1883</v>
-      </c>
-      <c r="E1884" t="s">
-        <v>3390</v>
-      </c>
-      <c r="F1884" t="s">
-        <v>3391</v>
-      </c>
-      <c r="G1884" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1884" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1884" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1885" spans="1:9">
-      <c r="A1885" s="1" t="n">
-        <v>1883</v>
-      </c>
-      <c r="B1885" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1885" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1885" t="n">
-        <v>1884</v>
-      </c>
-      <c r="E1885" t="s">
-        <v>3392</v>
-      </c>
-      <c r="F1885" t="s">
-        <v>3393</v>
-      </c>
-      <c r="G1885" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1885" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1885" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1886" spans="1:9">
-      <c r="A1886" s="1" t="n">
-        <v>1884</v>
-      </c>
-      <c r="B1886" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1886" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1886" t="n">
-        <v>1885</v>
-      </c>
-      <c r="E1886" t="s">
-        <v>3394</v>
-      </c>
-      <c r="F1886" t="s">
-        <v>3395</v>
-      </c>
-      <c r="G1886" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1886" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1886" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1887" spans="1:9">
-      <c r="A1887" s="1" t="n">
-        <v>1885</v>
-      </c>
-      <c r="B1887" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1887" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1887" t="n">
-        <v>1886</v>
-      </c>
-      <c r="E1887" t="s">
-        <v>3396</v>
-      </c>
-      <c r="F1887" t="s">
-        <v>3397</v>
-      </c>
-      <c r="G1887" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1887" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1887" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1888" spans="1:9">
-      <c r="A1888" s="1" t="n">
-        <v>1886</v>
-      </c>
-      <c r="B1888" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1888" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1888" t="n">
-        <v>1887</v>
-      </c>
-      <c r="E1888" t="s">
-        <v>3398</v>
-      </c>
-      <c r="F1888" t="s">
-        <v>3399</v>
-      </c>
-      <c r="G1888" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1888" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1888" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1889" spans="1:9">
-      <c r="A1889" s="1" t="n">
-        <v>1887</v>
-      </c>
-      <c r="B1889" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1889" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1889" t="n">
-        <v>1888</v>
-      </c>
-      <c r="E1889" t="s">
-        <v>3400</v>
-      </c>
-      <c r="F1889" t="s">
-        <v>3401</v>
-      </c>
-      <c r="G1889" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1889" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1889" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1890" spans="1:9">
-      <c r="A1890" s="1" t="n">
-        <v>1888</v>
-      </c>
-      <c r="B1890" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1890" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1890" t="n">
-        <v>1889</v>
-      </c>
-      <c r="E1890" t="s">
-        <v>3402</v>
-      </c>
-      <c r="F1890" t="s">
-        <v>3403</v>
-      </c>
-      <c r="G1890" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1890" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1890" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1891" spans="1:9">
-      <c r="A1891" s="1" t="n">
-        <v>1889</v>
-      </c>
-      <c r="B1891" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1891" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1891" t="n">
-        <v>1890</v>
-      </c>
-      <c r="E1891" t="s">
-        <v>3404</v>
-      </c>
-      <c r="F1891" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G1891" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1891" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1891" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1892" spans="1:9">
-      <c r="A1892" s="1" t="n">
-        <v>1890</v>
-      </c>
-      <c r="B1892" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1892" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1892" t="n">
-        <v>1891</v>
-      </c>
-      <c r="E1892" t="s">
-        <v>3406</v>
-      </c>
-      <c r="F1892" t="s">
-        <v>3407</v>
-      </c>
-      <c r="G1892" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1892" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1892" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1893" spans="1:9">
-      <c r="A1893" s="1" t="n">
-        <v>1891</v>
-      </c>
-      <c r="B1893" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1893" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1893" t="n">
-        <v>1892</v>
-      </c>
-      <c r="E1893" t="s">
-        <v>3408</v>
-      </c>
-      <c r="F1893" t="s">
-        <v>3409</v>
-      </c>
-      <c r="G1893" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1893" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1893" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1894" spans="1:9">
-      <c r="A1894" s="1" t="n">
-        <v>1892</v>
-      </c>
-      <c r="B1894" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1894" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1894" t="n">
-        <v>1893</v>
-      </c>
-      <c r="E1894" t="s">
-        <v>3410</v>
-      </c>
-      <c r="F1894" t="s">
-        <v>3411</v>
-      </c>
-      <c r="G1894" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1894" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1894" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1895" spans="1:9">
-      <c r="A1895" s="1" t="n">
-        <v>1893</v>
-      </c>
-      <c r="B1895" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1895" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1895" t="n">
-        <v>1894</v>
-      </c>
-      <c r="E1895" t="s">
-        <v>3412</v>
-      </c>
-      <c r="F1895" t="s">
-        <v>3413</v>
-      </c>
-      <c r="G1895" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1895" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1895" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1896" spans="1:9">
-      <c r="A1896" s="1" t="n">
-        <v>1894</v>
-      </c>
-      <c r="B1896" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1896" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1896" t="n">
-        <v>1895</v>
-      </c>
-      <c r="E1896" t="s">
-        <v>3414</v>
-      </c>
-      <c r="F1896" t="s">
-        <v>3415</v>
-      </c>
-      <c r="G1896" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1896" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1896" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1897" spans="1:9">
-      <c r="A1897" s="1" t="n">
-        <v>1895</v>
-      </c>
-      <c r="B1897" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1897" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1897" t="n">
-        <v>1896</v>
-      </c>
-      <c r="E1897" t="s">
-        <v>3416</v>
-      </c>
-      <c r="F1897" t="s">
-        <v>3417</v>
-      </c>
-      <c r="G1897" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1897" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1897" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1898" spans="1:9">
-      <c r="A1898" s="1" t="n">
-        <v>1896</v>
-      </c>
-      <c r="B1898" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1898" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1898" t="n">
-        <v>1897</v>
-      </c>
-      <c r="E1898" t="s">
-        <v>3418</v>
-      </c>
-      <c r="F1898" t="s">
-        <v>3419</v>
-      </c>
-      <c r="G1898" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1898" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1898" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1899" spans="1:9">
-      <c r="A1899" s="1" t="n">
-        <v>1897</v>
-      </c>
-      <c r="B1899" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1899" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1899" t="n">
-        <v>1898</v>
-      </c>
-      <c r="E1899" t="s">
-        <v>3420</v>
-      </c>
-      <c r="F1899" t="s">
-        <v>3421</v>
-      </c>
-      <c r="G1899" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1899" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1899" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1900" spans="1:9">
-      <c r="A1900" s="1" t="n">
-        <v>1898</v>
-      </c>
-      <c r="B1900" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1900" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1900" t="n">
-        <v>1899</v>
-      </c>
-      <c r="E1900" t="s">
-        <v>3422</v>
-      </c>
-      <c r="F1900" t="s">
-        <v>3423</v>
-      </c>
-      <c r="G1900" t="n">
-        <v>2</v>
-      </c>
-      <c r="H1900" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1900" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1901" spans="1:9">
-      <c r="A1901" s="1" t="n">
-        <v>1899</v>
-      </c>
-      <c r="B1901" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1901" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1901" t="n">
-        <v>1900</v>
-      </c>
-      <c r="E1901" t="s">
-        <v>3424</v>
-      </c>
-      <c r="F1901" t="s">
-        <v>3425</v>
-      </c>
-      <c r="G1901" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1901" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1901" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1902" spans="1:9">
-      <c r="A1902" s="1" t="n">
-        <v>1900</v>
-      </c>
-      <c r="B1902" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1902" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1902" t="n">
-        <v>1901</v>
-      </c>
-      <c r="E1902" t="s">
-        <v>3426</v>
-      </c>
-      <c r="F1902" t="s">
-        <v>3427</v>
-      </c>
-      <c r="G1902" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1902" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1902" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1903" spans="1:9">
-      <c r="A1903" s="1" t="n">
-        <v>1901</v>
-      </c>
-      <c r="B1903" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1903" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1903" t="n">
-        <v>1902</v>
-      </c>
-      <c r="E1903" t="s">
-        <v>3428</v>
-      </c>
-      <c r="F1903" t="s">
-        <v>3429</v>
-      </c>
-      <c r="G1903" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1903" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1903" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1904" spans="1:9">
-      <c r="A1904" s="1" t="n">
-        <v>1902</v>
-      </c>
-      <c r="B1904" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1904" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1904" t="n">
-        <v>1903</v>
-      </c>
-      <c r="E1904" t="s">
-        <v>3430</v>
-      </c>
-      <c r="F1904" t="s">
-        <v>3431</v>
-      </c>
-      <c r="G1904" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1904" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1904" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1905" spans="1:9">
-      <c r="A1905" s="1" t="n">
-        <v>1903</v>
-      </c>
-      <c r="B1905" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1905" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1905" t="n">
-        <v>1904</v>
-      </c>
-      <c r="E1905" t="s">
-        <v>3432</v>
-      </c>
-      <c r="F1905" t="s">
-        <v>3433</v>
-      </c>
-      <c r="G1905" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1905" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1905" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1906" spans="1:9">
-      <c r="A1906" s="1" t="n">
-        <v>1904</v>
-      </c>
-      <c r="B1906" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1906" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1906" t="n">
-        <v>1905</v>
-      </c>
-      <c r="E1906" t="s">
-        <v>3434</v>
-      </c>
-      <c r="F1906" t="s">
-        <v>3435</v>
-      </c>
-      <c r="G1906" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1906" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1906" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1907" spans="1:9">
-      <c r="A1907" s="1" t="n">
-        <v>1905</v>
-      </c>
-      <c r="B1907" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1907" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1907" t="n">
-        <v>1906</v>
-      </c>
-      <c r="E1907" t="s">
-        <v>3436</v>
-      </c>
-      <c r="F1907" t="s">
-        <v>3437</v>
-      </c>
-      <c r="G1907" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1907" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1907" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1908" spans="1:9">
-      <c r="A1908" s="1" t="n">
-        <v>1906</v>
-      </c>
-      <c r="B1908" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1908" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1908" t="n">
-        <v>1907</v>
-      </c>
-      <c r="E1908" t="s">
-        <v>3438</v>
-      </c>
-      <c r="F1908" t="s">
-        <v>3439</v>
-      </c>
-      <c r="G1908" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1908" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1908" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1909" spans="1:9">
-      <c r="A1909" s="1" t="n">
-        <v>1907</v>
-      </c>
-      <c r="B1909" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1909" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1909" t="n">
-        <v>1908</v>
-      </c>
-      <c r="E1909" t="s">
-        <v>3440</v>
-      </c>
-      <c r="F1909" t="s">
-        <v>3441</v>
-      </c>
-      <c r="G1909" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1909" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1909" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1910" spans="1:9">
-      <c r="A1910" s="1" t="n">
-        <v>1908</v>
-      </c>
-      <c r="B1910" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1910" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1910" t="n">
-        <v>1909</v>
-      </c>
-      <c r="E1910" t="s">
-        <v>3442</v>
-      </c>
-      <c r="F1910" t="s">
-        <v>3443</v>
-      </c>
-      <c r="G1910" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1910" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1910" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1911" spans="1:9">
-      <c r="A1911" s="1" t="n">
-        <v>1909</v>
-      </c>
-      <c r="B1911" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1911" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1911" t="n">
-        <v>1910</v>
-      </c>
-      <c r="E1911" t="s">
-        <v>3444</v>
-      </c>
-      <c r="F1911" t="s">
-        <v>3445</v>
-      </c>
-      <c r="G1911" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1911" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1911" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1912" spans="1:9">
-      <c r="A1912" s="1" t="n">
-        <v>1910</v>
-      </c>
-      <c r="B1912" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1912" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1912" t="n">
-        <v>1911</v>
-      </c>
-      <c r="E1912" t="s">
-        <v>3446</v>
-      </c>
-      <c r="F1912" t="s">
-        <v>3447</v>
-      </c>
-      <c r="G1912" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1912" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1912" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1913" spans="1:9">
-      <c r="A1913" s="1" t="n">
-        <v>1911</v>
-      </c>
-      <c r="B1913" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1913" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1913" t="n">
-        <v>1912</v>
-      </c>
-      <c r="E1913" t="s">
-        <v>3448</v>
-      </c>
-      <c r="F1913" t="s">
-        <v>3449</v>
-      </c>
-      <c r="G1913" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1913" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1913" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1914" spans="1:9">
-      <c r="A1914" s="1" t="n">
-        <v>1912</v>
-      </c>
-      <c r="B1914" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1914" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1914" t="n">
-        <v>1913</v>
-      </c>
-      <c r="E1914" t="s">
-        <v>3450</v>
-      </c>
-      <c r="F1914" t="s">
-        <v>3451</v>
-      </c>
-      <c r="G1914" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1914" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1914" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1915" spans="1:9">
-      <c r="A1915" s="1" t="n">
-        <v>1913</v>
-      </c>
-      <c r="B1915" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1915" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1915" t="n">
-        <v>1914</v>
-      </c>
-      <c r="E1915" t="s">
-        <v>3452</v>
-      </c>
-      <c r="F1915" t="s">
-        <v>3453</v>
-      </c>
-      <c r="G1915" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1915" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1915" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1916" spans="1:9">
-      <c r="A1916" s="1" t="n">
-        <v>1914</v>
-      </c>
-      <c r="B1916" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1916" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1916" t="n">
-        <v>1915</v>
-      </c>
-      <c r="E1916" t="s">
-        <v>3454</v>
-      </c>
-      <c r="F1916" t="s">
-        <v>3455</v>
-      </c>
-      <c r="G1916" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1916" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1916" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1917" spans="1:9">
-      <c r="A1917" s="1" t="n">
-        <v>1915</v>
-      </c>
-      <c r="B1917" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1917" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1917" t="n">
-        <v>1916</v>
-      </c>
-      <c r="E1917" t="s">
-        <v>3456</v>
-      </c>
-      <c r="F1917" t="s">
-        <v>3457</v>
-      </c>
-      <c r="G1917" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1917" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1917" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1918" spans="1:9">
-      <c r="A1918" s="1" t="n">
-        <v>1916</v>
-      </c>
-      <c r="B1918" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1918" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1918" t="n">
-        <v>1917</v>
-      </c>
-      <c r="E1918" t="s">
-        <v>3458</v>
-      </c>
-      <c r="F1918" t="s">
-        <v>3459</v>
-      </c>
-      <c r="G1918" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1918" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1918" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1919" spans="1:9">
-      <c r="A1919" s="1" t="n">
-        <v>1917</v>
-      </c>
-      <c r="B1919" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1919" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1919" t="n">
-        <v>1918</v>
-      </c>
-      <c r="E1919" t="s">
-        <v>3460</v>
-      </c>
-      <c r="F1919" t="s">
-        <v>3461</v>
-      </c>
-      <c r="G1919" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1919" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1919" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1920" spans="1:9">
-      <c r="A1920" s="1" t="n">
-        <v>1918</v>
-      </c>
-      <c r="B1920" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1920" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1920" t="n">
-        <v>1919</v>
-      </c>
-      <c r="E1920" t="s">
-        <v>3462</v>
-      </c>
-      <c r="F1920" t="s">
-        <v>3463</v>
-      </c>
-      <c r="G1920" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1920" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1920" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1921" spans="1:9">
-      <c r="A1921" s="1" t="n">
-        <v>1919</v>
-      </c>
-      <c r="B1921" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1921" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1921" t="n">
-        <v>1920</v>
-      </c>
-      <c r="E1921" t="s">
-        <v>3464</v>
-      </c>
-      <c r="F1921" t="s">
-        <v>3465</v>
-      </c>
-      <c r="G1921" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1921" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1921" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1922" spans="1:9">
-      <c r="A1922" s="1" t="n">
-        <v>1920</v>
-      </c>
-      <c r="B1922" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1922" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1922" t="n">
-        <v>1921</v>
-      </c>
-      <c r="E1922" t="s">
-        <v>3466</v>
-      </c>
-      <c r="F1922" t="s">
-        <v>3467</v>
-      </c>
-      <c r="G1922" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1922" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1922" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1923" spans="1:9">
-      <c r="A1923" s="1" t="n">
-        <v>1921</v>
-      </c>
-      <c r="B1923" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1923" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1923" t="n">
-        <v>1922</v>
-      </c>
-      <c r="E1923" t="s">
-        <v>3468</v>
-      </c>
-      <c r="F1923" t="s">
-        <v>3469</v>
-      </c>
-      <c r="G1923" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1923" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1923" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1924" spans="1:9">
-      <c r="A1924" s="1" t="n">
-        <v>1922</v>
-      </c>
-      <c r="B1924" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1924" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1924" t="n">
-        <v>1923</v>
-      </c>
-      <c r="E1924" t="s">
-        <v>3470</v>
-      </c>
-      <c r="F1924" t="s">
-        <v>3471</v>
-      </c>
-      <c r="G1924" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1924" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1924" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1925" spans="1:9">
-      <c r="A1925" s="1" t="n">
-        <v>1923</v>
-      </c>
-      <c r="B1925" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1925" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1925" t="n">
-        <v>1924</v>
-      </c>
-      <c r="E1925" t="s">
-        <v>3472</v>
-      </c>
-      <c r="F1925" t="s">
-        <v>3473</v>
-      </c>
-      <c r="G1925" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1925" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1925" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1926" spans="1:9">
-      <c r="A1926" s="1" t="n">
-        <v>1924</v>
-      </c>
-      <c r="B1926" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1926" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1926" t="n">
-        <v>1925</v>
-      </c>
-      <c r="E1926" t="s">
-        <v>3474</v>
-      </c>
-      <c r="F1926" t="s">
-        <v>3475</v>
-      </c>
-      <c r="G1926" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1926" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1926" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1927" spans="1:9">
-      <c r="A1927" s="1" t="n">
-        <v>1925</v>
-      </c>
-      <c r="B1927" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1927" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1927" t="n">
-        <v>1926</v>
-      </c>
-      <c r="E1927" t="s">
-        <v>3476</v>
-      </c>
-      <c r="F1927" t="s">
-        <v>3477</v>
-      </c>
-      <c r="G1927" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1927" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1927" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1928" spans="1:9">
-      <c r="A1928" s="1" t="n">
-        <v>1926</v>
-      </c>
-      <c r="B1928" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1928" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1928" t="n">
-        <v>1927</v>
-      </c>
-      <c r="E1928" t="s">
-        <v>3478</v>
-      </c>
-      <c r="F1928" t="s">
-        <v>3479</v>
-      </c>
-      <c r="G1928" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1928" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1928" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1929" spans="1:9">
-      <c r="A1929" s="1" t="n">
-        <v>1927</v>
-      </c>
-      <c r="B1929" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1929" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1929" t="n">
-        <v>1928</v>
-      </c>
-      <c r="E1929" t="s">
-        <v>3480</v>
-      </c>
-      <c r="F1929" t="s">
-        <v>3481</v>
-      </c>
-      <c r="G1929" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1929" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1929" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1930" spans="1:9">
-      <c r="A1930" s="1" t="n">
-        <v>1928</v>
-      </c>
-      <c r="B1930" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1930" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1930" t="n">
-        <v>1929</v>
-      </c>
-      <c r="E1930" t="s">
-        <v>3482</v>
-      </c>
-      <c r="F1930" t="s">
-        <v>3483</v>
-      </c>
-      <c r="G1930" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1930" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1930" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1931" spans="1:9">
-      <c r="A1931" s="1" t="n">
-        <v>1929</v>
-      </c>
-      <c r="B1931" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1931" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1931" t="n">
-        <v>1930</v>
-      </c>
-      <c r="E1931" t="s">
-        <v>3484</v>
-      </c>
-      <c r="F1931" t="s">
-        <v>3485</v>
-      </c>
-      <c r="G1931" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1931" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1931" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1932" spans="1:9">
-      <c r="A1932" s="1" t="n">
-        <v>1930</v>
-      </c>
-      <c r="B1932" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1932" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1932" t="n">
-        <v>1931</v>
-      </c>
-      <c r="E1932" t="s">
-        <v>3486</v>
-      </c>
-      <c r="F1932" t="s">
-        <v>3487</v>
-      </c>
-      <c r="G1932" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1932" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1932" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1933" spans="1:9">
-      <c r="A1933" s="1" t="n">
-        <v>1931</v>
-      </c>
-      <c r="B1933" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1933" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1933" t="n">
-        <v>1932</v>
-      </c>
-      <c r="E1933" t="s">
-        <v>3488</v>
-      </c>
-      <c r="F1933" t="s">
-        <v>3489</v>
-      </c>
-      <c r="G1933" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1933" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1933" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1934" spans="1:9">
-      <c r="A1934" s="1" t="n">
-        <v>1932</v>
-      </c>
-      <c r="B1934" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1934" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1934" t="n">
-        <v>1933</v>
-      </c>
-      <c r="E1934" t="s">
-        <v>3490</v>
-      </c>
-      <c r="F1934" t="s">
-        <v>3491</v>
-      </c>
-      <c r="G1934" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1934" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1934" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1935" spans="1:9">
-      <c r="A1935" s="1" t="n">
-        <v>1933</v>
-      </c>
-      <c r="B1935" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1935" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1935" t="n">
-        <v>1934</v>
-      </c>
-      <c r="E1935" t="s">
-        <v>3492</v>
-      </c>
-      <c r="F1935" t="s">
-        <v>3493</v>
-      </c>
-      <c r="G1935" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1935" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1935" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1936" spans="1:9">
-      <c r="A1936" s="1" t="n">
-        <v>1934</v>
-      </c>
-      <c r="B1936" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1936" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1936" t="n">
-        <v>1935</v>
-      </c>
-      <c r="E1936" t="s">
-        <v>3494</v>
-      </c>
-      <c r="F1936" t="s">
-        <v>3495</v>
-      </c>
-      <c r="G1936" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1936" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1936" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1937" spans="1:9">
-      <c r="A1937" s="1" t="n">
-        <v>1935</v>
-      </c>
-      <c r="B1937" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1937" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1937" t="n">
-        <v>1936</v>
-      </c>
-      <c r="E1937" t="s">
-        <v>3496</v>
-      </c>
-      <c r="F1937" t="s">
-        <v>3497</v>
-      </c>
-      <c r="G1937" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1937" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1937" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1938" spans="1:9">
-      <c r="A1938" s="1" t="n">
-        <v>1936</v>
-      </c>
-      <c r="B1938" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1938" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1938" t="n">
-        <v>1937</v>
-      </c>
-      <c r="E1938" t="s">
-        <v>3498</v>
-      </c>
-      <c r="F1938" t="s">
-        <v>3499</v>
-      </c>
-      <c r="G1938" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1938" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1938" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1939" spans="1:9">
-      <c r="A1939" s="1" t="n">
-        <v>1937</v>
-      </c>
-      <c r="B1939" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1939" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1939" t="n">
-        <v>1938</v>
-      </c>
-      <c r="E1939" t="s">
-        <v>3500</v>
-      </c>
-      <c r="F1939" t="s">
-        <v>3501</v>
-      </c>
-      <c r="G1939" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1939" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1939" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1940" spans="1:9">
-      <c r="A1940" s="1" t="n">
-        <v>1938</v>
-      </c>
-      <c r="B1940" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1940" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1940" t="n">
-        <v>1939</v>
-      </c>
-      <c r="E1940" t="s">
-        <v>3502</v>
-      </c>
-      <c r="F1940" t="s">
-        <v>3503</v>
-      </c>
-      <c r="G1940" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1940" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1940" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1941" spans="1:9">
-      <c r="A1941" s="1" t="n">
-        <v>1939</v>
-      </c>
-      <c r="B1941" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1941" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1941" t="n">
-        <v>1940</v>
-      </c>
-      <c r="E1941" t="s">
-        <v>3504</v>
-      </c>
-      <c r="F1941" t="s">
-        <v>3505</v>
-      </c>
-      <c r="G1941" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1941" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1941" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1942" spans="1:9">
-      <c r="A1942" s="1" t="n">
-        <v>1940</v>
-      </c>
-      <c r="B1942" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1942" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1942" t="n">
-        <v>1941</v>
-      </c>
-      <c r="E1942" t="s">
-        <v>3506</v>
-      </c>
-      <c r="F1942" t="s">
-        <v>3507</v>
-      </c>
-      <c r="G1942" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1942" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1942" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1943" spans="1:9">
-      <c r="A1943" s="1" t="n">
-        <v>1941</v>
-      </c>
-      <c r="B1943" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1943" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1943" t="n">
-        <v>1942</v>
-      </c>
-      <c r="E1943" t="s">
-        <v>3508</v>
-      </c>
-      <c r="F1943" t="s">
-        <v>3509</v>
-      </c>
-      <c r="G1943" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1943" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1943" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1944" spans="1:9">
-      <c r="A1944" s="1" t="n">
-        <v>1942</v>
-      </c>
-      <c r="B1944" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1944" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1944" t="n">
-        <v>1943</v>
-      </c>
-      <c r="E1944" t="s">
-        <v>3510</v>
-      </c>
-      <c r="F1944" t="s">
-        <v>3511</v>
-      </c>
-      <c r="G1944" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1944" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1944" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1945" spans="1:9">
-      <c r="A1945" s="1" t="n">
-        <v>1943</v>
-      </c>
-      <c r="B1945" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1945" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1945" t="n">
-        <v>1944</v>
-      </c>
-      <c r="E1945" t="s">
-        <v>3512</v>
-      </c>
-      <c r="F1945" t="s">
-        <v>3513</v>
-      </c>
-      <c r="G1945" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1945" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1945" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1946" spans="1:9">
-      <c r="A1946" s="1" t="n">
-        <v>1944</v>
-      </c>
-      <c r="B1946" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1946" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1946" t="n">
-        <v>1945</v>
-      </c>
-      <c r="E1946" t="s">
-        <v>3514</v>
-      </c>
-      <c r="F1946" t="s">
-        <v>3515</v>
-      </c>
-      <c r="G1946" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1946" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1946" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1947" spans="1:9">
-      <c r="A1947" s="1" t="n">
-        <v>1945</v>
-      </c>
-      <c r="B1947" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1947" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1947" t="n">
-        <v>1946</v>
-      </c>
-      <c r="E1947" t="s">
-        <v>3516</v>
-      </c>
-      <c r="F1947" t="s">
-        <v>3517</v>
-      </c>
-      <c r="G1947" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1947" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1947" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1948" spans="1:9">
-      <c r="A1948" s="1" t="n">
-        <v>1946</v>
-      </c>
-      <c r="B1948" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1948" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1948" t="n">
-        <v>1947</v>
-      </c>
-      <c r="E1948" t="s">
-        <v>3518</v>
-      </c>
-      <c r="F1948" t="s">
-        <v>3519</v>
-      </c>
-      <c r="G1948" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1948" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1948" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1949" spans="1:9">
-      <c r="A1949" s="1" t="n">
-        <v>1947</v>
-      </c>
-      <c r="B1949" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1949" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1949" t="n">
-        <v>1948</v>
-      </c>
-      <c r="E1949" t="s">
-        <v>3520</v>
-      </c>
-      <c r="F1949" t="s">
-        <v>3521</v>
-      </c>
-      <c r="G1949" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1949" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1949" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1950" spans="1:9">
-      <c r="A1950" s="1" t="n">
-        <v>1948</v>
-      </c>
-      <c r="B1950" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1950" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1950" t="n">
-        <v>1949</v>
-      </c>
-      <c r="E1950" t="s">
-        <v>3522</v>
-      </c>
-      <c r="F1950" t="s">
-        <v>3523</v>
-      </c>
-      <c r="G1950" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1950" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1950" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1951" spans="1:9">
-      <c r="A1951" s="1" t="n">
-        <v>1949</v>
-      </c>
-      <c r="B1951" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1951" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1951" t="n">
-        <v>1950</v>
-      </c>
-      <c r="E1951" t="s">
-        <v>3524</v>
-      </c>
-      <c r="F1951" t="s">
-        <v>3525</v>
-      </c>
-      <c r="G1951" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1951" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1951" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1952" spans="1:9">
-      <c r="A1952" s="1" t="n">
-        <v>1950</v>
-      </c>
-      <c r="B1952" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1952" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1952" t="n">
-        <v>1951</v>
-      </c>
-      <c r="E1952" t="s">
-        <v>3526</v>
-      </c>
-      <c r="F1952" t="s">
-        <v>3527</v>
-      </c>
-      <c r="G1952" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1952" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1952" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1953" spans="1:9">
-      <c r="A1953" s="1" t="n">
-        <v>1951</v>
-      </c>
-      <c r="B1953" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1953" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1953" t="n">
-        <v>1952</v>
-      </c>
-      <c r="E1953" t="s">
-        <v>3528</v>
-      </c>
-      <c r="F1953" t="s">
-        <v>3529</v>
-      </c>
-      <c r="G1953" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1953" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1953" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1954" spans="1:9">
-      <c r="A1954" s="1" t="n">
-        <v>1952</v>
-      </c>
-      <c r="B1954" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1954" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1954" t="n">
-        <v>1953</v>
-      </c>
-      <c r="E1954" t="s">
-        <v>3530</v>
-      </c>
-      <c r="F1954" t="s">
-        <v>3531</v>
-      </c>
-      <c r="G1954" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1954" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1954" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1955" spans="1:9">
-      <c r="A1955" s="1" t="n">
-        <v>1953</v>
-      </c>
-      <c r="B1955" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1955" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1955" t="n">
-        <v>1954</v>
-      </c>
-      <c r="E1955" t="s">
-        <v>3532</v>
-      </c>
-      <c r="F1955" t="s">
-        <v>3533</v>
-      </c>
-      <c r="G1955" t="n">
-        <v>2</v>
-      </c>
-      <c r="H1955" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1955" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1956" spans="1:9">
-      <c r="A1956" s="1" t="n">
-        <v>1954</v>
-      </c>
-      <c r="B1956" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1956" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1956" t="n">
-        <v>1955</v>
-      </c>
-      <c r="E1956" t="s">
-        <v>3534</v>
-      </c>
-      <c r="F1956" t="s">
-        <v>3535</v>
-      </c>
-      <c r="G1956" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1956" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1956" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1957" spans="1:9">
-      <c r="A1957" s="1" t="n">
-        <v>1955</v>
-      </c>
-      <c r="B1957" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1957" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1957" t="n">
-        <v>1956</v>
-      </c>
-      <c r="E1957" t="s">
-        <v>3536</v>
-      </c>
-      <c r="F1957" t="s">
-        <v>3537</v>
-      </c>
-      <c r="G1957" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1957" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1957" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1958" spans="1:9">
-      <c r="A1958" s="1" t="n">
-        <v>1956</v>
-      </c>
-      <c r="B1958" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1958" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1958" t="n">
-        <v>1957</v>
-      </c>
-      <c r="E1958" t="s">
-        <v>3538</v>
-      </c>
-      <c r="F1958" t="s">
-        <v>3539</v>
-      </c>
-      <c r="G1958" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1958" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1958" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1959" spans="1:9">
-      <c r="A1959" s="1" t="n">
-        <v>1957</v>
-      </c>
-      <c r="B1959" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1959" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1959" t="n">
-        <v>1958</v>
-      </c>
-      <c r="E1959" t="s">
-        <v>3540</v>
-      </c>
-      <c r="F1959" t="s">
-        <v>3541</v>
-      </c>
-      <c r="G1959" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1959" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1959" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1960" spans="1:9">
-      <c r="A1960" s="1" t="n">
-        <v>1958</v>
-      </c>
-      <c r="B1960" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1960" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1960" t="n">
-        <v>1959</v>
-      </c>
-      <c r="E1960" t="s">
-        <v>3542</v>
-      </c>
-      <c r="F1960" t="s">
-        <v>3543</v>
-      </c>
-      <c r="G1960" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1960" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1960" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1961" spans="1:9">
-      <c r="A1961" s="1" t="n">
-        <v>1959</v>
-      </c>
-      <c r="B1961" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1961" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1961" t="n">
-        <v>1960</v>
-      </c>
-      <c r="E1961" t="s">
-        <v>3544</v>
-      </c>
-      <c r="F1961" t="s">
-        <v>3545</v>
-      </c>
-      <c r="G1961" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1961" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1961" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1962" spans="1:9">
-      <c r="A1962" s="1" t="n">
-        <v>1960</v>
-      </c>
-      <c r="B1962" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1962" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1962" t="n">
-        <v>1961</v>
-      </c>
-      <c r="E1962" t="s">
-        <v>3546</v>
-      </c>
-      <c r="F1962" t="s">
-        <v>3547</v>
-      </c>
-      <c r="G1962" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1962" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1962" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1963" spans="1:9">
-      <c r="A1963" s="1" t="n">
-        <v>1961</v>
-      </c>
-      <c r="B1963" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1963" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1963" t="n">
-        <v>1962</v>
-      </c>
-      <c r="E1963" t="s">
-        <v>3548</v>
-      </c>
-      <c r="F1963" t="s">
-        <v>3549</v>
-      </c>
-      <c r="G1963" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1963" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1963" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1964" spans="1:9">
-      <c r="A1964" s="1" t="n">
-        <v>1962</v>
-      </c>
-      <c r="B1964" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1964" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1964" t="n">
-        <v>1963</v>
-      </c>
-      <c r="E1964" t="s">
-        <v>3550</v>
-      </c>
-      <c r="F1964" t="s">
-        <v>3551</v>
-      </c>
-      <c r="G1964" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1964" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1964" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1965" spans="1:9">
-      <c r="A1965" s="1" t="n">
-        <v>1963</v>
-      </c>
-      <c r="B1965" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1965" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1965" t="n">
-        <v>1964</v>
-      </c>
-      <c r="E1965" t="s">
-        <v>3552</v>
-      </c>
-      <c r="F1965" t="s">
-        <v>3553</v>
-      </c>
-      <c r="G1965" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1965" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1965" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1966" spans="1:9">
-      <c r="A1966" s="1" t="n">
-        <v>1964</v>
-      </c>
-      <c r="B1966" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1966" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1966" t="n">
-        <v>1965</v>
-      </c>
-      <c r="E1966" t="s">
-        <v>3554</v>
-      </c>
-      <c r="F1966" t="s">
-        <v>3555</v>
-      </c>
-      <c r="G1966" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1966" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1966" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1967" spans="1:9">
-      <c r="A1967" s="1" t="n">
-        <v>1965</v>
-      </c>
-      <c r="B1967" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1967" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1967" t="n">
-        <v>1966</v>
-      </c>
-      <c r="E1967" t="s">
-        <v>3556</v>
-      </c>
-      <c r="F1967" t="s">
-        <v>3557</v>
-      </c>
-      <c r="G1967" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1967" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1967" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1968" spans="1:9">
-      <c r="A1968" s="1" t="n">
-        <v>1966</v>
-      </c>
-      <c r="B1968" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1968" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1968" t="n">
-        <v>1967</v>
-      </c>
-      <c r="E1968" t="s">
-        <v>3558</v>
-      </c>
-      <c r="F1968" t="s">
-        <v>3559</v>
-      </c>
-      <c r="G1968" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1968" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1968" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1969" spans="1:9">
-      <c r="A1969" s="1" t="n">
-        <v>1967</v>
-      </c>
-      <c r="B1969" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1969" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1969" t="n">
-        <v>1968</v>
-      </c>
-      <c r="E1969" t="s">
-        <v>3560</v>
-      </c>
-      <c r="F1969" t="s">
-        <v>3561</v>
-      </c>
-      <c r="G1969" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1969" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1969" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1970" spans="1:9">
-      <c r="A1970" s="1" t="n">
-        <v>1968</v>
-      </c>
-      <c r="B1970" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1970" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1970" t="n">
-        <v>1969</v>
-      </c>
-      <c r="E1970" t="s">
-        <v>3562</v>
-      </c>
-      <c r="F1970" t="s">
-        <v>3563</v>
-      </c>
-      <c r="G1970" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1970" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1970" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1971" spans="1:9">
-      <c r="A1971" s="1" t="n">
-        <v>1969</v>
-      </c>
-      <c r="B1971" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1971" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1971" t="n">
-        <v>1970</v>
-      </c>
-      <c r="E1971" t="s">
-        <v>3564</v>
-      </c>
-      <c r="F1971" t="s">
-        <v>3565</v>
-      </c>
-      <c r="G1971" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1971" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1971" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1972" spans="1:9">
-      <c r="A1972" s="1" t="n">
-        <v>1970</v>
-      </c>
-      <c r="B1972" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1972" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1972" t="n">
-        <v>1971</v>
-      </c>
-      <c r="E1972" t="s">
-        <v>3566</v>
-      </c>
-      <c r="F1972" t="s">
-        <v>3567</v>
-      </c>
-      <c r="G1972" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1972" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1972" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1973" spans="1:9">
-      <c r="A1973" s="1" t="n">
-        <v>1971</v>
-      </c>
-      <c r="B1973" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1973" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1973" t="n">
-        <v>1972</v>
-      </c>
-      <c r="E1973" t="s">
-        <v>3568</v>
-      </c>
-      <c r="F1973" t="s">
-        <v>3569</v>
-      </c>
-      <c r="G1973" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1973" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1973" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1974" spans="1:9">
-      <c r="A1974" s="1" t="n">
-        <v>1972</v>
-      </c>
-      <c r="B1974" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1974" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1974" t="n">
-        <v>1973</v>
-      </c>
-      <c r="E1974" t="s">
-        <v>3570</v>
-      </c>
-      <c r="F1974" t="s">
-        <v>3571</v>
-      </c>
-      <c r="G1974" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1974" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1974" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1975" spans="1:9">
-      <c r="A1975" s="1" t="n">
-        <v>1973</v>
-      </c>
-      <c r="B1975" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1975" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1975" t="n">
-        <v>1974</v>
-      </c>
-      <c r="E1975" t="s">
-        <v>3572</v>
-      </c>
-      <c r="F1975" t="s">
-        <v>3573</v>
-      </c>
-      <c r="G1975" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1975" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1975" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1976" spans="1:9">
-      <c r="A1976" s="1" t="n">
-        <v>1974</v>
-      </c>
-      <c r="B1976" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1976" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1976" t="n">
-        <v>1975</v>
-      </c>
-      <c r="E1976" t="s">
-        <v>3574</v>
-      </c>
-      <c r="F1976" t="s">
-        <v>3575</v>
-      </c>
-      <c r="G1976" t="n">
-        <v>2</v>
-      </c>
-      <c r="H1976" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1976" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1977" spans="1:9">
-      <c r="A1977" s="1" t="n">
-        <v>1975</v>
-      </c>
-      <c r="B1977" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1977" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1977" t="n">
-        <v>1976</v>
-      </c>
-      <c r="E1977" t="s">
-        <v>3576</v>
-      </c>
-      <c r="F1977" t="s">
-        <v>3577</v>
-      </c>
-      <c r="G1977" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1977" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1977" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1978" spans="1:9">
-      <c r="A1978" s="1" t="n">
-        <v>1976</v>
-      </c>
-      <c r="B1978" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1978" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1978" t="n">
-        <v>1977</v>
-      </c>
-      <c r="E1978" t="s">
-        <v>3578</v>
-      </c>
-      <c r="F1978" t="s">
-        <v>3579</v>
-      </c>
-      <c r="G1978" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1978" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1978" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1979" spans="1:9">
-      <c r="A1979" s="1" t="n">
-        <v>1977</v>
-      </c>
-      <c r="B1979" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1979" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1979" t="n">
-        <v>1978</v>
-      </c>
-      <c r="E1979" t="s">
-        <v>3580</v>
-      </c>
-      <c r="F1979" t="s">
-        <v>3581</v>
-      </c>
-      <c r="G1979" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1979" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1979" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1980" spans="1:9">
-      <c r="A1980" s="1" t="n">
-        <v>1978</v>
-      </c>
-      <c r="B1980" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1980" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1980" t="n">
-        <v>1979</v>
-      </c>
-      <c r="E1980" t="s">
-        <v>3582</v>
-      </c>
-      <c r="F1980" t="s">
-        <v>3583</v>
-      </c>
-      <c r="G1980" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1980" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1980" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1981" spans="1:9">
-      <c r="A1981" s="1" t="n">
-        <v>1979</v>
-      </c>
-      <c r="B1981" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1981" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1981" t="n">
-        <v>1980</v>
-      </c>
-      <c r="E1981" t="s">
-        <v>3584</v>
-      </c>
-      <c r="F1981" t="s">
-        <v>3585</v>
-      </c>
-      <c r="G1981" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1981" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1981" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1982" spans="1:9">
-      <c r="A1982" s="1" t="n">
-        <v>1980</v>
-      </c>
-      <c r="B1982" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1982" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1982" t="n">
-        <v>1981</v>
-      </c>
-      <c r="E1982" t="s">
-        <v>3586</v>
-      </c>
-      <c r="F1982" t="s">
-        <v>3587</v>
-      </c>
-      <c r="G1982" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1982" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1982" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1983" spans="1:9">
-      <c r="A1983" s="1" t="n">
-        <v>1981</v>
-      </c>
-      <c r="B1983" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1983" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1983" t="n">
-        <v>1982</v>
-      </c>
-      <c r="E1983" t="s">
-        <v>3588</v>
-      </c>
-      <c r="F1983" t="s">
-        <v>3589</v>
-      </c>
-      <c r="G1983" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1983" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1983" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1984" spans="1:9">
-      <c r="A1984" s="1" t="n">
-        <v>1982</v>
-      </c>
-      <c r="B1984" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1984" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1984" t="n">
-        <v>1983</v>
-      </c>
-      <c r="E1984" t="s">
-        <v>3590</v>
-      </c>
-      <c r="F1984" t="s">
-        <v>3591</v>
-      </c>
-      <c r="G1984" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1984" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1984" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1985" spans="1:9">
-      <c r="A1985" s="1" t="n">
-        <v>1983</v>
-      </c>
-      <c r="B1985" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1985" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1985" t="n">
-        <v>1984</v>
-      </c>
-      <c r="E1985" t="s">
-        <v>3592</v>
-      </c>
-      <c r="F1985" t="s">
-        <v>3593</v>
-      </c>
-      <c r="G1985" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1985" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1985" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1986" spans="1:9">
-      <c r="A1986" s="1" t="n">
-        <v>1984</v>
-      </c>
-      <c r="B1986" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1986" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1986" t="n">
-        <v>1985</v>
-      </c>
-      <c r="E1986" t="s">
-        <v>3594</v>
-      </c>
-      <c r="F1986" t="s">
-        <v>3595</v>
-      </c>
-      <c r="G1986" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1986" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1986" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1987" spans="1:9">
-      <c r="A1987" s="1" t="n">
-        <v>1985</v>
-      </c>
-      <c r="B1987" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1987" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1987" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E1987" t="s">
-        <v>3596</v>
-      </c>
-      <c r="F1987" t="s">
-        <v>3597</v>
-      </c>
-      <c r="G1987" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1987" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1987" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1988" spans="1:9">
-      <c r="A1988" s="1" t="n">
-        <v>1986</v>
-      </c>
-      <c r="B1988" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1988" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1988" t="n">
-        <v>1987</v>
-      </c>
-      <c r="E1988" t="s">
-        <v>3598</v>
-      </c>
-      <c r="F1988" t="s">
-        <v>3599</v>
-      </c>
-      <c r="G1988" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1988" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1988" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1989" spans="1:9">
-      <c r="A1989" s="1" t="n">
-        <v>1987</v>
-      </c>
-      <c r="B1989" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1989" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1989" t="n">
-        <v>1988</v>
-      </c>
-      <c r="E1989" t="s">
-        <v>3600</v>
-      </c>
-      <c r="F1989" t="s">
-        <v>3601</v>
-      </c>
-      <c r="G1989" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1989" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1989" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1990" spans="1:9">
-      <c r="A1990" s="1" t="n">
-        <v>1988</v>
-      </c>
-      <c r="B1990" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1990" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1990" t="n">
-        <v>1989</v>
-      </c>
-      <c r="E1990" t="s">
-        <v>3602</v>
-      </c>
-      <c r="F1990" t="s">
-        <v>3603</v>
-      </c>
-      <c r="G1990" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1990" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1990" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1991" spans="1:9">
-      <c r="A1991" s="1" t="n">
-        <v>1989</v>
-      </c>
-      <c r="B1991" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1991" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1991" t="n">
-        <v>1990</v>
-      </c>
-      <c r="E1991" t="s">
-        <v>3604</v>
-      </c>
-      <c r="F1991" t="s">
-        <v>3605</v>
-      </c>
-      <c r="G1991" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1991" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1991" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1992" spans="1:9">
-      <c r="A1992" s="1" t="n">
-        <v>1990</v>
-      </c>
-      <c r="B1992" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1992" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1992" t="n">
-        <v>1991</v>
-      </c>
-      <c r="E1992" t="s">
-        <v>3606</v>
-      </c>
-      <c r="F1992" t="s">
-        <v>3607</v>
-      </c>
-      <c r="G1992" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1992" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1992" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1993" spans="1:9">
-      <c r="A1993" s="1" t="n">
-        <v>1991</v>
-      </c>
-      <c r="B1993" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1993" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1993" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E1993" t="s">
-        <v>3608</v>
-      </c>
-      <c r="F1993" t="s">
-        <v>3609</v>
-      </c>
-      <c r="G1993" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1993" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1993" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1994" spans="1:9">
-      <c r="A1994" s="1" t="n">
-        <v>1992</v>
-      </c>
-      <c r="B1994" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1994" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1994" t="n">
-        <v>1993</v>
-      </c>
-      <c r="E1994" t="s">
-        <v>3610</v>
-      </c>
-      <c r="F1994" t="s">
-        <v>3611</v>
-      </c>
-      <c r="G1994" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1994" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1994" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1995" spans="1:9">
-      <c r="A1995" s="1" t="n">
-        <v>1993</v>
-      </c>
-      <c r="B1995" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1995" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1995" t="n">
-        <v>1994</v>
-      </c>
-      <c r="E1995" t="s">
-        <v>3612</v>
-      </c>
-      <c r="F1995" t="s">
-        <v>3613</v>
-      </c>
-      <c r="G1995" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1995" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1995" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1996" spans="1:9">
-      <c r="A1996" s="1" t="n">
-        <v>1994</v>
-      </c>
-      <c r="B1996" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1996" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1996" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E1996" t="s">
-        <v>3614</v>
-      </c>
-      <c r="F1996" t="s">
-        <v>3615</v>
-      </c>
-      <c r="G1996" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1996" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1996" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1997" spans="1:9">
-      <c r="A1997" s="1" t="n">
-        <v>1995</v>
-      </c>
-      <c r="B1997" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1997" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1997" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E1997" t="s">
-        <v>3616</v>
-      </c>
-      <c r="F1997" t="s">
-        <v>3617</v>
-      </c>
-      <c r="G1997" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1997" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1997" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1998" spans="1:9">
-      <c r="A1998" s="1" t="n">
-        <v>1996</v>
-      </c>
-      <c r="B1998" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1998" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1998" t="n">
-        <v>1997</v>
-      </c>
-      <c r="E1998" t="s">
-        <v>3618</v>
-      </c>
-      <c r="F1998" t="s">
-        <v>3619</v>
-      </c>
-      <c r="G1998" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1998" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1998" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1999" spans="1:9">
-      <c r="A1999" s="1" t="n">
-        <v>1997</v>
-      </c>
-      <c r="B1999" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1999" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1999" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E1999" t="s">
-        <v>3620</v>
-      </c>
-      <c r="F1999" t="s">
-        <v>3621</v>
-      </c>
-      <c r="G1999" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1999" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1999" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2000" spans="1:9">
-      <c r="A2000" s="1" t="n">
-        <v>1998</v>
-      </c>
-      <c r="B2000" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2000" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2000" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E2000" t="s">
-        <v>3622</v>
-      </c>
-      <c r="F2000" t="s">
-        <v>3623</v>
-      </c>
-      <c r="G2000" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2000" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2000" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2001" spans="1:9">
-      <c r="A2001" s="1" t="n">
-        <v>1999</v>
-      </c>
-      <c r="B2001" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2001" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2001" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E2001" t="s">
-        <v>3624</v>
-      </c>
-      <c r="F2001" t="s">
-        <v>3625</v>
-      </c>
-      <c r="G2001" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2001" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2001" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2002" spans="1:9">
-      <c r="A2002" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B2002" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2002" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2002" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E2002" t="s">
-        <v>3626</v>
-      </c>
-      <c r="F2002" t="s">
-        <v>3627</v>
-      </c>
-      <c r="G2002" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2002" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2002" t="n">
         <v>2</v>
       </c>
     </row>
